--- a/output/aperture-icon.png.xlsx
+++ b/output/aperture-icon.png.xlsx
@@ -45,7 +45,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF657185"/>
+        <fgColor rgb="FF7B8696"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,7 +75,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7B8696"/>
+        <fgColor rgb="FF707B8D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,19 +87,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF707B8D"/>
+        <fgColor rgb="FFF4F5F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF86909F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F5F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,13 +117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2B8C2"/>
+        <fgColor rgb="FF657185"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE1E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B8C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,134 +465,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="12" width="1.7109375" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" customWidth="1"/>
-    <col min="20" max="20" width="1.7109375" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" customWidth="1"/>
-    <col min="22" max="22" width="1.7109375" customWidth="1"/>
-    <col min="23" max="23" width="1.7109375" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="25" width="1.7109375" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="27" width="1.7109375" customWidth="1"/>
-    <col min="28" max="28" width="1.7109375" customWidth="1"/>
-    <col min="29" max="29" width="1.7109375" customWidth="1"/>
-    <col min="30" max="30" width="1.7109375" customWidth="1"/>
-    <col min="31" max="31" width="1.7109375" customWidth="1"/>
-    <col min="32" max="32" width="1.7109375" customWidth="1"/>
-    <col min="33" max="33" width="1.7109375" customWidth="1"/>
-    <col min="34" max="34" width="1.7109375" customWidth="1"/>
-    <col min="35" max="35" width="1.7109375" customWidth="1"/>
-    <col min="36" max="36" width="1.7109375" customWidth="1"/>
-    <col min="37" max="37" width="1.7109375" customWidth="1"/>
-    <col min="38" max="38" width="1.7109375" customWidth="1"/>
-    <col min="39" max="39" width="1.7109375" customWidth="1"/>
-    <col min="40" max="40" width="1.7109375" customWidth="1"/>
-    <col min="41" max="41" width="1.7109375" customWidth="1"/>
-    <col min="42" max="42" width="1.7109375" customWidth="1"/>
-    <col min="43" max="43" width="1.7109375" customWidth="1"/>
-    <col min="44" max="44" width="1.7109375" customWidth="1"/>
-    <col min="45" max="45" width="1.7109375" customWidth="1"/>
-    <col min="46" max="46" width="1.7109375" customWidth="1"/>
-    <col min="47" max="47" width="1.7109375" customWidth="1"/>
-    <col min="48" max="48" width="1.7109375" customWidth="1"/>
-    <col min="49" max="49" width="1.7109375" customWidth="1"/>
-    <col min="50" max="50" width="1.7109375" customWidth="1"/>
-    <col min="51" max="51" width="1.7109375" customWidth="1"/>
-    <col min="52" max="52" width="1.7109375" customWidth="1"/>
-    <col min="53" max="53" width="1.7109375" customWidth="1"/>
-    <col min="54" max="54" width="1.7109375" customWidth="1"/>
-    <col min="55" max="55" width="1.7109375" customWidth="1"/>
-    <col min="56" max="56" width="1.7109375" customWidth="1"/>
-    <col min="57" max="57" width="1.7109375" customWidth="1"/>
-    <col min="58" max="58" width="1.7109375" customWidth="1"/>
-    <col min="59" max="59" width="1.7109375" customWidth="1"/>
-    <col min="60" max="60" width="1.7109375" customWidth="1"/>
-    <col min="61" max="61" width="1.7109375" customWidth="1"/>
-    <col min="62" max="62" width="1.7109375" customWidth="1"/>
-    <col min="63" max="63" width="1.7109375" customWidth="1"/>
-    <col min="64" max="64" width="1.7109375" customWidth="1"/>
-    <col min="65" max="65" width="1.7109375" customWidth="1"/>
-    <col min="66" max="66" width="1.7109375" customWidth="1"/>
-    <col min="67" max="67" width="1.7109375" customWidth="1"/>
-    <col min="68" max="68" width="1.7109375" customWidth="1"/>
-    <col min="69" max="69" width="1.7109375" customWidth="1"/>
-    <col min="70" max="70" width="1.7109375" customWidth="1"/>
-    <col min="71" max="71" width="1.7109375" customWidth="1"/>
-    <col min="72" max="72" width="1.7109375" customWidth="1"/>
-    <col min="73" max="73" width="1.7109375" customWidth="1"/>
-    <col min="74" max="74" width="1.7109375" customWidth="1"/>
-    <col min="75" max="75" width="1.7109375" customWidth="1"/>
-    <col min="76" max="76" width="1.7109375" customWidth="1"/>
-    <col min="77" max="77" width="1.7109375" customWidth="1"/>
-    <col min="78" max="78" width="1.7109375" customWidth="1"/>
-    <col min="79" max="79" width="1.7109375" customWidth="1"/>
-    <col min="80" max="80" width="1.7109375" customWidth="1"/>
-    <col min="81" max="81" width="1.7109375" customWidth="1"/>
-    <col min="82" max="82" width="1.7109375" customWidth="1"/>
-    <col min="83" max="83" width="1.7109375" customWidth="1"/>
-    <col min="84" max="84" width="1.7109375" customWidth="1"/>
-    <col min="85" max="85" width="1.7109375" customWidth="1"/>
-    <col min="86" max="86" width="1.7109375" customWidth="1"/>
-    <col min="87" max="87" width="1.7109375" customWidth="1"/>
-    <col min="88" max="88" width="1.7109375" customWidth="1"/>
-    <col min="89" max="89" width="1.7109375" customWidth="1"/>
-    <col min="90" max="90" width="1.7109375" customWidth="1"/>
-    <col min="91" max="91" width="1.7109375" customWidth="1"/>
-    <col min="92" max="92" width="1.7109375" customWidth="1"/>
-    <col min="93" max="93" width="1.7109375" customWidth="1"/>
-    <col min="94" max="94" width="1.7109375" customWidth="1"/>
-    <col min="95" max="95" width="1.7109375" customWidth="1"/>
-    <col min="96" max="96" width="1.7109375" customWidth="1"/>
-    <col min="97" max="97" width="1.7109375" customWidth="1"/>
-    <col min="98" max="98" width="1.7109375" customWidth="1"/>
-    <col min="99" max="99" width="1.7109375" customWidth="1"/>
-    <col min="100" max="100" width="1.7109375" customWidth="1"/>
-    <col min="101" max="101" width="1.7109375" customWidth="1"/>
-    <col min="102" max="102" width="1.7109375" customWidth="1"/>
-    <col min="103" max="103" width="1.7109375" customWidth="1"/>
-    <col min="104" max="104" width="1.7109375" customWidth="1"/>
-    <col min="105" max="105" width="1.7109375" customWidth="1"/>
-    <col min="106" max="106" width="1.7109375" customWidth="1"/>
-    <col min="107" max="107" width="1.7109375" customWidth="1"/>
-    <col min="108" max="108" width="1.7109375" customWidth="1"/>
-    <col min="109" max="109" width="1.7109375" customWidth="1"/>
-    <col min="110" max="110" width="1.7109375" customWidth="1"/>
-    <col min="111" max="111" width="1.7109375" customWidth="1"/>
-    <col min="112" max="112" width="1.7109375" customWidth="1"/>
-    <col min="113" max="113" width="1.7109375" customWidth="1"/>
-    <col min="114" max="114" width="1.7109375" customWidth="1"/>
-    <col min="115" max="115" width="1.7109375" customWidth="1"/>
-    <col min="116" max="116" width="1.7109375" customWidth="1"/>
-    <col min="117" max="117" width="1.7109375" customWidth="1"/>
-    <col min="118" max="118" width="1.7109375" customWidth="1"/>
-    <col min="119" max="119" width="1.7109375" customWidth="1"/>
-    <col min="120" max="120" width="1.7109375" customWidth="1"/>
-    <col min="121" max="121" width="1.7109375" customWidth="1"/>
-    <col min="122" max="122" width="1.7109375" customWidth="1"/>
-    <col min="123" max="123" width="1.7109375" customWidth="1"/>
-    <col min="124" max="124" width="1.7109375" customWidth="1"/>
-    <col min="125" max="125" width="1.7109375" customWidth="1"/>
-    <col min="126" max="126" width="1.7109375" customWidth="1"/>
-    <col min="127" max="127" width="1.7109375" customWidth="1"/>
-    <col min="128" max="128" width="1.7109375" customWidth="1"/>
+    <col min="1" max="128" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="10" customHeight="1">
@@ -2609,7 +2482,7 @@
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
-      <c r="BL16" s="3"/>
+      <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
@@ -2730,7 +2603,7 @@
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
+      <c r="BC17" s="3"/>
       <c r="BD17" s="4"/>
       <c r="BE17" s="5"/>
       <c r="BF17" s="6"/>
@@ -2749,7 +2622,7 @@
       <c r="BS17" s="6"/>
       <c r="BT17" s="5"/>
       <c r="BU17" s="4"/>
-      <c r="BV17" s="8"/>
+      <c r="BV17" s="2"/>
       <c r="BW17" s="2"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
@@ -2856,12 +2729,12 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="9"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
@@ -2878,12 +2751,12 @@
       <c r="BR18" s="7"/>
       <c r="BS18" s="7"/>
       <c r="BT18" s="7"/>
-      <c r="BU18" s="7"/>
-      <c r="BV18" s="7"/>
-      <c r="BW18" s="7"/>
-      <c r="BX18" s="6"/>
-      <c r="BY18" s="5"/>
-      <c r="BZ18" s="10"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
       <c r="CA18" s="2"/>
       <c r="CB18" s="2"/>
       <c r="CC18" s="2"/>
@@ -2983,16 +2856,16 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="9"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
@@ -3007,16 +2880,16 @@
       <c r="BQ19" s="7"/>
       <c r="BR19" s="7"/>
       <c r="BS19" s="7"/>
-      <c r="BT19" s="7"/>
-      <c r="BU19" s="7"/>
-      <c r="BV19" s="7"/>
-      <c r="BW19" s="7"/>
-      <c r="BX19" s="7"/>
-      <c r="BY19" s="7"/>
-      <c r="BZ19" s="7"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="9"/>
-      <c r="CC19" s="8"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="3"/>
       <c r="CD19" s="2"/>
       <c r="CE19" s="2"/>
       <c r="CF19" s="2"/>
@@ -3110,20 +2983,20 @@
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="15"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="14"/>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="9"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
       <c r="BI20" s="7"/>
@@ -3136,20 +3009,20 @@
       <c r="BP20" s="7"/>
       <c r="BQ20" s="7"/>
       <c r="BR20" s="7"/>
-      <c r="BS20" s="7"/>
-      <c r="BT20" s="7"/>
-      <c r="BU20" s="7"/>
-      <c r="BV20" s="7"/>
-      <c r="BW20" s="7"/>
-      <c r="BX20" s="7"/>
-      <c r="BY20" s="7"/>
-      <c r="BZ20" s="7"/>
-      <c r="CA20" s="7"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="4"/>
       <c r="CB20" s="7"/>
       <c r="CC20" s="7"/>
-      <c r="CD20" s="15"/>
-      <c r="CE20" s="14"/>
-      <c r="CF20" s="13"/>
+      <c r="CD20" s="14"/>
+      <c r="CE20" s="13"/>
+      <c r="CF20" s="12"/>
       <c r="CG20" s="2"/>
       <c r="CH20" s="2"/>
       <c r="CI20" s="2"/>
@@ -3238,23 +3111,23 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="12"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="10"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
       <c r="AX21" s="7"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="9"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
       <c r="BI21" s="7"/>
       <c r="BJ21" s="7"/>
@@ -3265,23 +3138,23 @@
       <c r="BO21" s="7"/>
       <c r="BP21" s="7"/>
       <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
-      <c r="BS21" s="7"/>
-      <c r="BT21" s="7"/>
-      <c r="BU21" s="7"/>
-      <c r="BV21" s="7"/>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
-      <c r="BY21" s="7"/>
-      <c r="BZ21" s="7"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="4"/>
       <c r="CA21" s="7"/>
       <c r="CB21" s="7"/>
       <c r="CC21" s="7"/>
       <c r="CD21" s="7"/>
       <c r="CE21" s="7"/>
-      <c r="CF21" s="12"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
+      <c r="CF21" s="10"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="15"/>
       <c r="CI21" s="2"/>
       <c r="CJ21" s="2"/>
       <c r="CK21" s="2"/>
@@ -3366,10 +3239,10 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -3377,15 +3250,15 @@
       <c r="AW22" s="7"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="9"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
       <c r="BI22" s="7"/>
       <c r="BJ22" s="7"/>
       <c r="BK22" s="7"/>
@@ -3394,15 +3267,15 @@
       <c r="BN22" s="7"/>
       <c r="BO22" s="7"/>
       <c r="BP22" s="7"/>
-      <c r="BQ22" s="7"/>
-      <c r="BR22" s="7"/>
-      <c r="BS22" s="7"/>
-      <c r="BT22" s="7"/>
-      <c r="BU22" s="7"/>
-      <c r="BV22" s="7"/>
-      <c r="BW22" s="7"/>
-      <c r="BX22" s="7"/>
-      <c r="BY22" s="7"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+      <c r="BV22" s="2"/>
+      <c r="BW22" s="2"/>
+      <c r="BX22" s="2"/>
+      <c r="BY22" s="4"/>
       <c r="BZ22" s="7"/>
       <c r="CA22" s="7"/>
       <c r="CB22" s="7"/>
@@ -3410,10 +3283,10 @@
       <c r="CD22" s="7"/>
       <c r="CE22" s="7"/>
       <c r="CF22" s="7"/>
-      <c r="CG22" s="2"/>
-      <c r="CH22" s="2"/>
-      <c r="CI22" s="2"/>
-      <c r="CJ22" s="2"/>
+      <c r="CG22" s="7"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="12"/>
       <c r="CK22" s="2"/>
       <c r="CL22" s="2"/>
       <c r="CM22" s="2"/>
@@ -3495,11 +3368,11 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
@@ -3508,30 +3381,30 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="AZ23" s="7"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="9"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
       <c r="BJ23" s="7"/>
       <c r="BK23" s="7"/>
       <c r="BL23" s="7"/>
       <c r="BM23" s="7"/>
       <c r="BN23" s="7"/>
       <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
-      <c r="BS23" s="7"/>
-      <c r="BT23" s="7"/>
-      <c r="BU23" s="7"/>
-      <c r="BV23" s="7"/>
-      <c r="BW23" s="7"/>
-      <c r="BX23" s="7"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="4"/>
       <c r="BY23" s="7"/>
       <c r="BZ23" s="7"/>
       <c r="CA23" s="7"/>
@@ -3540,11 +3413,11 @@
       <c r="CD23" s="7"/>
       <c r="CE23" s="7"/>
       <c r="CF23" s="7"/>
-      <c r="CG23" s="2"/>
-      <c r="CH23" s="2"/>
-      <c r="CI23" s="2"/>
-      <c r="CJ23" s="2"/>
-      <c r="CK23" s="2"/>
+      <c r="CG23" s="7"/>
+      <c r="CH23" s="7"/>
+      <c r="CI23" s="7"/>
+      <c r="CJ23" s="10"/>
+      <c r="CK23" s="5"/>
       <c r="CL23" s="2"/>
       <c r="CM23" s="2"/>
       <c r="CN23" s="2"/>
@@ -3623,13 +3496,13 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
@@ -3639,28 +3512,28 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="7"/>
       <c r="BA24" s="7"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="9"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
       <c r="BM24" s="7"/>
       <c r="BN24" s="7"/>
-      <c r="BO24" s="7"/>
-      <c r="BP24" s="7"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7"/>
-      <c r="BS24" s="7"/>
-      <c r="BT24" s="7"/>
-      <c r="BU24" s="7"/>
-      <c r="BV24" s="7"/>
-      <c r="BW24" s="7"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+      <c r="BW24" s="4"/>
       <c r="BX24" s="7"/>
       <c r="BY24" s="7"/>
       <c r="BZ24" s="7"/>
@@ -3670,13 +3543,13 @@
       <c r="CD24" s="7"/>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
-      <c r="CG24" s="2"/>
-      <c r="CH24" s="2"/>
-      <c r="CI24" s="2"/>
-      <c r="CJ24" s="2"/>
-      <c r="CK24" s="2"/>
-      <c r="CL24" s="2"/>
-      <c r="CM24" s="8"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
+      <c r="CJ24" s="7"/>
+      <c r="CK24" s="7"/>
+      <c r="CL24" s="16"/>
+      <c r="CM24" s="3"/>
       <c r="CN24" s="2"/>
       <c r="CO24" s="2"/>
       <c r="CP24" s="2"/>
@@ -3752,14 +3625,14 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="16"/>
+      <c r="AK25" s="17"/>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
@@ -3770,26 +3643,26 @@
       <c r="AZ25" s="7"/>
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="9"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
       <c r="BL25" s="7"/>
       <c r="BM25" s="7"/>
-      <c r="BN25" s="7"/>
-      <c r="BO25" s="7"/>
-      <c r="BP25" s="7"/>
-      <c r="BQ25" s="7"/>
-      <c r="BR25" s="7"/>
-      <c r="BS25" s="7"/>
-      <c r="BT25" s="7"/>
-      <c r="BU25" s="7"/>
-      <c r="BV25" s="7"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="4"/>
       <c r="BW25" s="7"/>
       <c r="BX25" s="7"/>
       <c r="BY25" s="7"/>
@@ -3800,14 +3673,14 @@
       <c r="CD25" s="7"/>
       <c r="CE25" s="7"/>
       <c r="CF25" s="7"/>
-      <c r="CG25" s="2"/>
-      <c r="CH25" s="2"/>
-      <c r="CI25" s="2"/>
-      <c r="CJ25" s="2"/>
-      <c r="CK25" s="2"/>
-      <c r="CL25" s="2"/>
+      <c r="CG25" s="7"/>
+      <c r="CH25" s="7"/>
+      <c r="CI25" s="7"/>
+      <c r="CJ25" s="7"/>
+      <c r="CK25" s="7"/>
+      <c r="CL25" s="7"/>
       <c r="CM25" s="7"/>
-      <c r="CN25" s="16"/>
+      <c r="CN25" s="17"/>
       <c r="CO25" s="2"/>
       <c r="CP25" s="2"/>
       <c r="CQ25" s="2"/>
@@ -3880,16 +3753,16 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="17"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="16"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
@@ -3901,24 +3774,24 @@
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="2"/>
-      <c r="BJ26" s="2"/>
-      <c r="BK26" s="2"/>
-      <c r="BL26" s="9"/>
-      <c r="BM26" s="7"/>
-      <c r="BN26" s="7"/>
-      <c r="BO26" s="7"/>
-      <c r="BP26" s="7"/>
-      <c r="BQ26" s="7"/>
-      <c r="BR26" s="7"/>
-      <c r="BS26" s="7"/>
-      <c r="BT26" s="7"/>
-      <c r="BU26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="4"/>
       <c r="BV26" s="7"/>
       <c r="BW26" s="7"/>
       <c r="BX26" s="7"/>
@@ -3930,16 +3803,16 @@
       <c r="CD26" s="7"/>
       <c r="CE26" s="7"/>
       <c r="CF26" s="7"/>
-      <c r="CG26" s="2"/>
-      <c r="CH26" s="2"/>
-      <c r="CI26" s="2"/>
-      <c r="CJ26" s="2"/>
-      <c r="CK26" s="2"/>
-      <c r="CL26" s="2"/>
+      <c r="CG26" s="7"/>
+      <c r="CH26" s="7"/>
+      <c r="CI26" s="7"/>
+      <c r="CJ26" s="7"/>
+      <c r="CK26" s="7"/>
+      <c r="CL26" s="7"/>
       <c r="CM26" s="7"/>
       <c r="CN26" s="7"/>
-      <c r="CO26" s="17"/>
-      <c r="CP26" s="3"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="15"/>
       <c r="CQ26" s="2"/>
       <c r="CR26" s="2"/>
       <c r="CS26" s="2"/>
@@ -4010,16 +3883,16 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="11"/>
-      <c r="AI27" s="12"/>
+      <c r="AI27" s="10"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
@@ -4032,22 +3905,22 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="2"/>
-      <c r="BI27" s="2"/>
-      <c r="BJ27" s="2"/>
-      <c r="BK27" s="2"/>
-      <c r="BL27" s="2"/>
-      <c r="BM27" s="9"/>
-      <c r="BN27" s="7"/>
-      <c r="BO27" s="7"/>
-      <c r="BP27" s="7"/>
-      <c r="BQ27" s="7"/>
-      <c r="BR27" s="7"/>
-      <c r="BS27" s="7"/>
-      <c r="BT27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="4"/>
       <c r="BU27" s="7"/>
       <c r="BV27" s="7"/>
       <c r="BW27" s="7"/>
@@ -4060,16 +3933,16 @@
       <c r="CD27" s="7"/>
       <c r="CE27" s="7"/>
       <c r="CF27" s="7"/>
-      <c r="CG27" s="2"/>
-      <c r="CH27" s="2"/>
-      <c r="CI27" s="2"/>
-      <c r="CJ27" s="2"/>
-      <c r="CK27" s="2"/>
-      <c r="CL27" s="2"/>
+      <c r="CG27" s="7"/>
+      <c r="CH27" s="7"/>
+      <c r="CI27" s="7"/>
+      <c r="CJ27" s="7"/>
+      <c r="CK27" s="7"/>
+      <c r="CL27" s="7"/>
       <c r="CM27" s="7"/>
       <c r="CN27" s="7"/>
       <c r="CO27" s="7"/>
-      <c r="CP27" s="12"/>
+      <c r="CP27" s="10"/>
       <c r="CQ27" s="11"/>
       <c r="CR27" s="2"/>
       <c r="CS27" s="2"/>
@@ -4144,12 +4017,12 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
-      <c r="AQ28" s="7"/>
-      <c r="AR28" s="7"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
@@ -4163,20 +4036,20 @@
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
       <c r="BE28" s="7"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
-      <c r="BK28" s="2"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="9"/>
       <c r="BL28" s="2"/>
       <c r="BM28" s="2"/>
-      <c r="BN28" s="9"/>
-      <c r="BO28" s="7"/>
-      <c r="BP28" s="7"/>
-      <c r="BQ28" s="7"/>
-      <c r="BR28" s="7"/>
-      <c r="BS28" s="7"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="4"/>
       <c r="BT28" s="7"/>
       <c r="BU28" s="7"/>
       <c r="BV28" s="7"/>
@@ -4190,12 +4063,12 @@
       <c r="CD28" s="7"/>
       <c r="CE28" s="7"/>
       <c r="CF28" s="7"/>
-      <c r="CG28" s="2"/>
-      <c r="CH28" s="2"/>
-      <c r="CI28" s="2"/>
-      <c r="CJ28" s="2"/>
-      <c r="CK28" s="2"/>
-      <c r="CL28" s="2"/>
+      <c r="CG28" s="7"/>
+      <c r="CH28" s="7"/>
+      <c r="CI28" s="7"/>
+      <c r="CJ28" s="7"/>
+      <c r="CK28" s="7"/>
+      <c r="CL28" s="7"/>
       <c r="CM28" s="7"/>
       <c r="CN28" s="7"/>
       <c r="CO28" s="7"/>
@@ -4274,12 +4147,12 @@
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
@@ -4294,18 +4167,18 @@
       <c r="BD29" s="7"/>
       <c r="BE29" s="7"/>
       <c r="BF29" s="7"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="9"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
-      <c r="BO29" s="9"/>
-      <c r="BP29" s="7"/>
-      <c r="BQ29" s="7"/>
-      <c r="BR29" s="7"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="4"/>
       <c r="BS29" s="7"/>
       <c r="BT29" s="7"/>
       <c r="BU29" s="7"/>
@@ -4320,12 +4193,12 @@
       <c r="CD29" s="7"/>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
-      <c r="CG29" s="2"/>
-      <c r="CH29" s="2"/>
-      <c r="CI29" s="2"/>
-      <c r="CJ29" s="2"/>
-      <c r="CK29" s="2"/>
-      <c r="CL29" s="2"/>
+      <c r="CG29" s="7"/>
+      <c r="CH29" s="7"/>
+      <c r="CI29" s="7"/>
+      <c r="CJ29" s="7"/>
+      <c r="CK29" s="7"/>
+      <c r="CL29" s="7"/>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
       <c r="CO29" s="7"/>
@@ -4404,12 +4277,12 @@
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
@@ -4425,16 +4298,16 @@
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="4"/>
-      <c r="BI30" s="2"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="9"/>
       <c r="BJ30" s="2"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
       <c r="BN30" s="2"/>
       <c r="BO30" s="2"/>
-      <c r="BP30" s="9"/>
-      <c r="BQ30" s="7"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="4"/>
       <c r="BR30" s="7"/>
       <c r="BS30" s="7"/>
       <c r="BT30" s="7"/>
@@ -4450,12 +4323,12 @@
       <c r="CD30" s="7"/>
       <c r="CE30" s="7"/>
       <c r="CF30" s="7"/>
-      <c r="CG30" s="2"/>
-      <c r="CH30" s="2"/>
-      <c r="CI30" s="2"/>
-      <c r="CJ30" s="2"/>
-      <c r="CK30" s="2"/>
-      <c r="CL30" s="2"/>
+      <c r="CG30" s="7"/>
+      <c r="CH30" s="7"/>
+      <c r="CI30" s="7"/>
+      <c r="CJ30" s="7"/>
+      <c r="CK30" s="7"/>
+      <c r="CL30" s="7"/>
       <c r="CM30" s="7"/>
       <c r="CN30" s="7"/>
       <c r="CO30" s="7"/>
@@ -4534,12 +4407,12 @@
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
       <c r="AS31" s="7"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
@@ -4555,16 +4428,16 @@
       <c r="BE31" s="7"/>
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
-      <c r="BH31" s="7"/>
-      <c r="BI31" s="4"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
       <c r="BN31" s="2"/>
       <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
-      <c r="BQ31" s="9"/>
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="7"/>
       <c r="BR31" s="7"/>
       <c r="BS31" s="7"/>
       <c r="BT31" s="7"/>
@@ -4580,12 +4453,12 @@
       <c r="CD31" s="7"/>
       <c r="CE31" s="7"/>
       <c r="CF31" s="7"/>
-      <c r="CG31" s="2"/>
-      <c r="CH31" s="2"/>
-      <c r="CI31" s="2"/>
-      <c r="CJ31" s="2"/>
-      <c r="CK31" s="2"/>
-      <c r="CL31" s="2"/>
+      <c r="CG31" s="7"/>
+      <c r="CH31" s="7"/>
+      <c r="CI31" s="7"/>
+      <c r="CJ31" s="7"/>
+      <c r="CK31" s="7"/>
+      <c r="CL31" s="7"/>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
       <c r="CO31" s="7"/>
@@ -4664,12 +4537,12 @@
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
@@ -4684,18 +4557,18 @@
       <c r="BD32" s="7"/>
       <c r="BE32" s="7"/>
       <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="7"/>
-      <c r="BI32" s="7"/>
-      <c r="BJ32" s="4"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
       <c r="BM32" s="2"/>
       <c r="BN32" s="2"/>
-      <c r="BO32" s="2"/>
-      <c r="BP32" s="2"/>
-      <c r="BQ32" s="2"/>
-      <c r="BR32" s="9"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7"/>
+      <c r="BR32" s="7"/>
       <c r="BS32" s="7"/>
       <c r="BT32" s="7"/>
       <c r="BU32" s="7"/>
@@ -4710,12 +4583,12 @@
       <c r="CD32" s="7"/>
       <c r="CE32" s="7"/>
       <c r="CF32" s="7"/>
-      <c r="CG32" s="2"/>
-      <c r="CH32" s="2"/>
-      <c r="CI32" s="2"/>
-      <c r="CJ32" s="2"/>
-      <c r="CK32" s="2"/>
-      <c r="CL32" s="2"/>
+      <c r="CG32" s="7"/>
+      <c r="CH32" s="7"/>
+      <c r="CI32" s="7"/>
+      <c r="CJ32" s="7"/>
+      <c r="CK32" s="7"/>
+      <c r="CL32" s="7"/>
       <c r="CM32" s="7"/>
       <c r="CN32" s="7"/>
       <c r="CO32" s="7"/>
@@ -4794,12 +4667,12 @@
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
@@ -4813,20 +4686,20 @@
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
       <c r="BE33" s="7"/>
-      <c r="BF33" s="7"/>
-      <c r="BG33" s="7"/>
-      <c r="BH33" s="7"/>
-      <c r="BI33" s="7"/>
-      <c r="BJ33" s="7"/>
-      <c r="BK33" s="4"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
-      <c r="BN33" s="2"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33" s="2"/>
-      <c r="BQ33" s="2"/>
-      <c r="BR33" s="2"/>
-      <c r="BS33" s="9"/>
+      <c r="BN33" s="4"/>
+      <c r="BO33" s="7"/>
+      <c r="BP33" s="7"/>
+      <c r="BQ33" s="7"/>
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7"/>
       <c r="BT33" s="7"/>
       <c r="BU33" s="7"/>
       <c r="BV33" s="7"/>
@@ -4840,12 +4713,12 @@
       <c r="CD33" s="7"/>
       <c r="CE33" s="7"/>
       <c r="CF33" s="7"/>
-      <c r="CG33" s="2"/>
-      <c r="CH33" s="2"/>
-      <c r="CI33" s="2"/>
-      <c r="CJ33" s="2"/>
-      <c r="CK33" s="2"/>
-      <c r="CL33" s="2"/>
+      <c r="CG33" s="7"/>
+      <c r="CH33" s="7"/>
+      <c r="CI33" s="7"/>
+      <c r="CJ33" s="7"/>
+      <c r="CK33" s="7"/>
+      <c r="CL33" s="7"/>
       <c r="CM33" s="7"/>
       <c r="CN33" s="7"/>
       <c r="CO33" s="7"/>
@@ -4924,12 +4797,12 @@
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="7"/>
-      <c r="AR34" s="7"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
@@ -4942,22 +4815,22 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
-      <c r="BE34" s="7"/>
-      <c r="BF34" s="7"/>
-      <c r="BG34" s="7"/>
-      <c r="BH34" s="7"/>
-      <c r="BI34" s="7"/>
-      <c r="BJ34" s="7"/>
-      <c r="BK34" s="7"/>
-      <c r="BL34" s="4"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
-      <c r="BQ34" s="2"/>
-      <c r="BR34" s="2"/>
-      <c r="BS34" s="2"/>
-      <c r="BT34" s="9"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="7"/>
+      <c r="BO34" s="7"/>
+      <c r="BP34" s="7"/>
+      <c r="BQ34" s="7"/>
+      <c r="BR34" s="7"/>
+      <c r="BS34" s="7"/>
+      <c r="BT34" s="7"/>
       <c r="BU34" s="7"/>
       <c r="BV34" s="7"/>
       <c r="BW34" s="7"/>
@@ -4970,12 +4843,12 @@
       <c r="CD34" s="7"/>
       <c r="CE34" s="7"/>
       <c r="CF34" s="7"/>
-      <c r="CG34" s="2"/>
-      <c r="CH34" s="2"/>
-      <c r="CI34" s="2"/>
-      <c r="CJ34" s="2"/>
-      <c r="CK34" s="2"/>
-      <c r="CL34" s="2"/>
+      <c r="CG34" s="7"/>
+      <c r="CH34" s="7"/>
+      <c r="CI34" s="7"/>
+      <c r="CJ34" s="7"/>
+      <c r="CK34" s="7"/>
+      <c r="CL34" s="7"/>
       <c r="CM34" s="7"/>
       <c r="CN34" s="7"/>
       <c r="CO34" s="7"/>
@@ -5041,8 +4914,8 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="12"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="10"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
@@ -5054,12 +4927,12 @@
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
-      <c r="AR35" s="7"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
       <c r="AS35" s="7"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
@@ -5071,24 +4944,24 @@
       <c r="BA35" s="7"/>
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
-      <c r="BD35" s="7"/>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
-      <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
-      <c r="BJ35" s="7"/>
-      <c r="BK35" s="7"/>
-      <c r="BL35" s="7"/>
-      <c r="BM35" s="4"/>
-      <c r="BN35" s="2"/>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
-      <c r="BQ35" s="2"/>
-      <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="9"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="7"/>
+      <c r="BN35" s="7"/>
+      <c r="BO35" s="7"/>
+      <c r="BP35" s="7"/>
+      <c r="BQ35" s="7"/>
+      <c r="BR35" s="7"/>
+      <c r="BS35" s="7"/>
+      <c r="BT35" s="7"/>
+      <c r="BU35" s="7"/>
       <c r="BV35" s="7"/>
       <c r="BW35" s="7"/>
       <c r="BX35" s="7"/>
@@ -5100,12 +4973,12 @@
       <c r="CD35" s="7"/>
       <c r="CE35" s="7"/>
       <c r="CF35" s="7"/>
-      <c r="CG35" s="2"/>
-      <c r="CH35" s="2"/>
-      <c r="CI35" s="2"/>
-      <c r="CJ35" s="2"/>
-      <c r="CK35" s="2"/>
-      <c r="CL35" s="2"/>
+      <c r="CG35" s="7"/>
+      <c r="CH35" s="7"/>
+      <c r="CI35" s="7"/>
+      <c r="CJ35" s="7"/>
+      <c r="CK35" s="7"/>
+      <c r="CL35" s="7"/>
       <c r="CM35" s="7"/>
       <c r="CN35" s="7"/>
       <c r="CO35" s="7"/>
@@ -5117,8 +4990,8 @@
       <c r="CU35" s="7"/>
       <c r="CV35" s="7"/>
       <c r="CW35" s="7"/>
-      <c r="CX35" s="12"/>
-      <c r="CY35" s="3"/>
+      <c r="CX35" s="10"/>
+      <c r="CY35" s="15"/>
       <c r="CZ35" s="2"/>
       <c r="DA35" s="2"/>
       <c r="DB35" s="2"/>
@@ -5171,7 +5044,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="17"/>
+      <c r="Z36" s="16"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
@@ -5184,12 +5057,12 @@
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
-      <c r="AQ36" s="7"/>
-      <c r="AR36" s="7"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
       <c r="AS36" s="7"/>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
@@ -5200,26 +5073,26 @@
       <c r="AZ36" s="7"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
-      <c r="BC36" s="7"/>
-      <c r="BD36" s="7"/>
-      <c r="BE36" s="7"/>
-      <c r="BF36" s="7"/>
-      <c r="BG36" s="7"/>
-      <c r="BH36" s="7"/>
-      <c r="BI36" s="7"/>
-      <c r="BJ36" s="7"/>
-      <c r="BK36" s="7"/>
+      <c r="BC36" s="9"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="4"/>
       <c r="BL36" s="7"/>
       <c r="BM36" s="7"/>
-      <c r="BN36" s="4"/>
-      <c r="BO36" s="2"/>
-      <c r="BP36" s="2"/>
-      <c r="BQ36" s="2"/>
-      <c r="BR36" s="2"/>
-      <c r="BS36" s="2"/>
-      <c r="BT36" s="2"/>
-      <c r="BU36" s="2"/>
-      <c r="BV36" s="9"/>
+      <c r="BN36" s="7"/>
+      <c r="BO36" s="7"/>
+      <c r="BP36" s="7"/>
+      <c r="BQ36" s="7"/>
+      <c r="BR36" s="7"/>
+      <c r="BS36" s="7"/>
+      <c r="BT36" s="7"/>
+      <c r="BU36" s="7"/>
+      <c r="BV36" s="7"/>
       <c r="BW36" s="7"/>
       <c r="BX36" s="7"/>
       <c r="BY36" s="7"/>
@@ -5230,12 +5103,12 @@
       <c r="CD36" s="7"/>
       <c r="CE36" s="7"/>
       <c r="CF36" s="7"/>
-      <c r="CG36" s="2"/>
-      <c r="CH36" s="2"/>
-      <c r="CI36" s="2"/>
-      <c r="CJ36" s="2"/>
-      <c r="CK36" s="2"/>
-      <c r="CL36" s="2"/>
+      <c r="CG36" s="7"/>
+      <c r="CH36" s="7"/>
+      <c r="CI36" s="7"/>
+      <c r="CJ36" s="7"/>
+      <c r="CK36" s="7"/>
+      <c r="CL36" s="7"/>
       <c r="CM36" s="7"/>
       <c r="CN36" s="7"/>
       <c r="CO36" s="7"/>
@@ -5248,7 +5121,7 @@
       <c r="CV36" s="7"/>
       <c r="CW36" s="7"/>
       <c r="CX36" s="7"/>
-      <c r="CY36" s="17"/>
+      <c r="CY36" s="16"/>
       <c r="CZ36" s="2"/>
       <c r="DA36" s="2"/>
       <c r="DB36" s="2"/>
@@ -5300,7 +5173,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="16"/>
+      <c r="Y37" s="17"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
@@ -5314,12 +5187,12 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="7"/>
-      <c r="AP37" s="7"/>
-      <c r="AQ37" s="7"/>
-      <c r="AR37" s="7"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
@@ -5329,28 +5202,28 @@
       <c r="AY37" s="7"/>
       <c r="AZ37" s="7"/>
       <c r="BA37" s="7"/>
-      <c r="BB37" s="7"/>
-      <c r="BC37" s="7"/>
-      <c r="BD37" s="7"/>
-      <c r="BE37" s="7"/>
-      <c r="BF37" s="7"/>
-      <c r="BG37" s="7"/>
-      <c r="BH37" s="7"/>
-      <c r="BI37" s="7"/>
-      <c r="BJ37" s="7"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="4"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
       <c r="BM37" s="7"/>
       <c r="BN37" s="7"/>
-      <c r="BO37" s="4"/>
-      <c r="BP37" s="2"/>
-      <c r="BQ37" s="2"/>
-      <c r="BR37" s="2"/>
-      <c r="BS37" s="2"/>
-      <c r="BT37" s="2"/>
-      <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
-      <c r="BW37" s="9"/>
+      <c r="BO37" s="7"/>
+      <c r="BP37" s="7"/>
+      <c r="BQ37" s="7"/>
+      <c r="BR37" s="7"/>
+      <c r="BS37" s="7"/>
+      <c r="BT37" s="7"/>
+      <c r="BU37" s="7"/>
+      <c r="BV37" s="7"/>
+      <c r="BW37" s="7"/>
       <c r="BX37" s="7"/>
       <c r="BY37" s="7"/>
       <c r="BZ37" s="7"/>
@@ -5360,12 +5233,12 @@
       <c r="CD37" s="7"/>
       <c r="CE37" s="7"/>
       <c r="CF37" s="7"/>
-      <c r="CG37" s="2"/>
-      <c r="CH37" s="2"/>
-      <c r="CI37" s="2"/>
-      <c r="CJ37" s="2"/>
-      <c r="CK37" s="2"/>
-      <c r="CL37" s="2"/>
+      <c r="CG37" s="7"/>
+      <c r="CH37" s="7"/>
+      <c r="CI37" s="7"/>
+      <c r="CJ37" s="7"/>
+      <c r="CK37" s="7"/>
+      <c r="CL37" s="7"/>
       <c r="CM37" s="7"/>
       <c r="CN37" s="7"/>
       <c r="CO37" s="7"/>
@@ -5379,7 +5252,7 @@
       <c r="CW37" s="7"/>
       <c r="CX37" s="7"/>
       <c r="CY37" s="7"/>
-      <c r="CZ37" s="16"/>
+      <c r="CZ37" s="17"/>
       <c r="DA37" s="2"/>
       <c r="DB37" s="2"/>
       <c r="DC37" s="2"/>
@@ -5429,7 +5302,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="8"/>
+      <c r="X38" s="3"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -5444,12 +5317,12 @@
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
-      <c r="AQ38" s="7"/>
-      <c r="AR38" s="7"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
       <c r="AS38" s="7"/>
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
@@ -5458,30 +5331,30 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="7"/>
-      <c r="BA38" s="7"/>
-      <c r="BB38" s="7"/>
-      <c r="BC38" s="7"/>
-      <c r="BD38" s="7"/>
-      <c r="BE38" s="7"/>
-      <c r="BF38" s="7"/>
-      <c r="BG38" s="7"/>
-      <c r="BH38" s="7"/>
-      <c r="BI38" s="7"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="4"/>
       <c r="BJ38" s="7"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
       <c r="BM38" s="7"/>
       <c r="BN38" s="7"/>
       <c r="BO38" s="7"/>
-      <c r="BP38" s="4"/>
-      <c r="BQ38" s="2"/>
-      <c r="BR38" s="2"/>
-      <c r="BS38" s="2"/>
-      <c r="BT38" s="2"/>
-      <c r="BU38" s="2"/>
-      <c r="BV38" s="2"/>
-      <c r="BW38" s="2"/>
-      <c r="BX38" s="9"/>
+      <c r="BP38" s="7"/>
+      <c r="BQ38" s="7"/>
+      <c r="BR38" s="7"/>
+      <c r="BS38" s="7"/>
+      <c r="BT38" s="7"/>
+      <c r="BU38" s="7"/>
+      <c r="BV38" s="7"/>
+      <c r="BW38" s="7"/>
+      <c r="BX38" s="7"/>
       <c r="BY38" s="7"/>
       <c r="BZ38" s="7"/>
       <c r="CA38" s="7"/>
@@ -5490,12 +5363,12 @@
       <c r="CD38" s="7"/>
       <c r="CE38" s="7"/>
       <c r="CF38" s="7"/>
-      <c r="CG38" s="2"/>
-      <c r="CH38" s="2"/>
-      <c r="CI38" s="2"/>
-      <c r="CJ38" s="2"/>
-      <c r="CK38" s="2"/>
-      <c r="CL38" s="2"/>
+      <c r="CG38" s="7"/>
+      <c r="CH38" s="7"/>
+      <c r="CI38" s="7"/>
+      <c r="CJ38" s="7"/>
+      <c r="CK38" s="7"/>
+      <c r="CL38" s="7"/>
       <c r="CM38" s="7"/>
       <c r="CN38" s="7"/>
       <c r="CO38" s="7"/>
@@ -5510,7 +5383,7 @@
       <c r="CX38" s="7"/>
       <c r="CY38" s="7"/>
       <c r="CZ38" s="7"/>
-      <c r="DA38" s="8"/>
+      <c r="DA38" s="3"/>
       <c r="DB38" s="2"/>
       <c r="DC38" s="2"/>
       <c r="DD38" s="2"/>
@@ -5559,35 +5432,35 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="9"/>
       <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
@@ -5612,35 +5485,35 @@
       <c r="BV39" s="2"/>
       <c r="BW39" s="2"/>
       <c r="BX39" s="2"/>
-      <c r="BY39" s="9"/>
-      <c r="BZ39" s="7"/>
-      <c r="CA39" s="7"/>
-      <c r="CB39" s="7"/>
-      <c r="CC39" s="7"/>
-      <c r="CD39" s="7"/>
-      <c r="CE39" s="7"/>
-      <c r="CF39" s="7"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
       <c r="CG39" s="2"/>
       <c r="CH39" s="2"/>
       <c r="CI39" s="2"/>
       <c r="CJ39" s="2"/>
       <c r="CK39" s="2"/>
       <c r="CL39" s="2"/>
-      <c r="CM39" s="7"/>
-      <c r="CN39" s="7"/>
-      <c r="CO39" s="7"/>
-      <c r="CP39" s="7"/>
-      <c r="CQ39" s="7"/>
-      <c r="CR39" s="7"/>
-      <c r="CS39" s="7"/>
-      <c r="CT39" s="7"/>
-      <c r="CU39" s="7"/>
-      <c r="CV39" s="7"/>
-      <c r="CW39" s="7"/>
-      <c r="CX39" s="7"/>
-      <c r="CY39" s="7"/>
-      <c r="CZ39" s="7"/>
-      <c r="DA39" s="17"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="2"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="2"/>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="2"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="2"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="2"/>
+      <c r="CW39" s="2"/>
+      <c r="CX39" s="2"/>
+      <c r="CY39" s="2"/>
+      <c r="CZ39" s="2"/>
+      <c r="DA39" s="2"/>
       <c r="DB39" s="2"/>
       <c r="DC39" s="2"/>
       <c r="DD39" s="2"/>
@@ -5688,35 +5561,35 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="9"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
       <c r="BB40" s="2"/>
@@ -5743,35 +5616,35 @@
       <c r="BW40" s="2"/>
       <c r="BX40" s="2"/>
       <c r="BY40" s="2"/>
-      <c r="BZ40" s="9"/>
-      <c r="CA40" s="7"/>
-      <c r="CB40" s="7"/>
-      <c r="CC40" s="7"/>
-      <c r="CD40" s="7"/>
-      <c r="CE40" s="7"/>
-      <c r="CF40" s="7"/>
+      <c r="BZ40" s="2"/>
+      <c r="CA40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="2"/>
+      <c r="CF40" s="2"/>
       <c r="CG40" s="2"/>
       <c r="CH40" s="2"/>
       <c r="CI40" s="2"/>
       <c r="CJ40" s="2"/>
       <c r="CK40" s="2"/>
       <c r="CL40" s="2"/>
-      <c r="CM40" s="7"/>
-      <c r="CN40" s="7"/>
-      <c r="CO40" s="7"/>
-      <c r="CP40" s="7"/>
-      <c r="CQ40" s="7"/>
-      <c r="CR40" s="7"/>
-      <c r="CS40" s="7"/>
-      <c r="CT40" s="7"/>
-      <c r="CU40" s="7"/>
-      <c r="CV40" s="7"/>
-      <c r="CW40" s="7"/>
-      <c r="CX40" s="7"/>
-      <c r="CY40" s="7"/>
-      <c r="CZ40" s="7"/>
-      <c r="DA40" s="7"/>
-      <c r="DB40" s="5"/>
+      <c r="CM40" s="2"/>
+      <c r="CN40" s="2"/>
+      <c r="CO40" s="2"/>
+      <c r="CP40" s="2"/>
+      <c r="CQ40" s="2"/>
+      <c r="CR40" s="2"/>
+      <c r="CS40" s="2"/>
+      <c r="CT40" s="2"/>
+      <c r="CU40" s="2"/>
+      <c r="CV40" s="2"/>
+      <c r="CW40" s="2"/>
+      <c r="CX40" s="2"/>
+      <c r="CY40" s="2"/>
+      <c r="CZ40" s="2"/>
+      <c r="DA40" s="2"/>
+      <c r="DB40" s="2"/>
       <c r="DC40" s="2"/>
       <c r="DD40" s="2"/>
       <c r="DE40" s="2"/>
@@ -5817,35 +5690,35 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="9"/>
       <c r="AY41" s="2"/>
       <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
@@ -5874,35 +5747,35 @@
       <c r="BX41" s="2"/>
       <c r="BY41" s="2"/>
       <c r="BZ41" s="2"/>
-      <c r="CA41" s="9"/>
-      <c r="CB41" s="7"/>
-      <c r="CC41" s="7"/>
-      <c r="CD41" s="7"/>
-      <c r="CE41" s="7"/>
-      <c r="CF41" s="7"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="2"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="2"/>
       <c r="CG41" s="2"/>
       <c r="CH41" s="2"/>
       <c r="CI41" s="2"/>
       <c r="CJ41" s="2"/>
       <c r="CK41" s="2"/>
       <c r="CL41" s="2"/>
-      <c r="CM41" s="7"/>
-      <c r="CN41" s="7"/>
-      <c r="CO41" s="7"/>
-      <c r="CP41" s="7"/>
-      <c r="CQ41" s="7"/>
-      <c r="CR41" s="7"/>
-      <c r="CS41" s="7"/>
-      <c r="CT41" s="7"/>
-      <c r="CU41" s="7"/>
-      <c r="CV41" s="7"/>
-      <c r="CW41" s="7"/>
-      <c r="CX41" s="7"/>
-      <c r="CY41" s="7"/>
-      <c r="CZ41" s="7"/>
-      <c r="DA41" s="7"/>
-      <c r="DB41" s="12"/>
-      <c r="DC41" s="13"/>
+      <c r="CM41" s="2"/>
+      <c r="CN41" s="2"/>
+      <c r="CO41" s="2"/>
+      <c r="CP41" s="2"/>
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="2"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="2"/>
+      <c r="CY41" s="2"/>
+      <c r="CZ41" s="2"/>
+      <c r="DA41" s="2"/>
+      <c r="DB41" s="2"/>
+      <c r="DC41" s="2"/>
       <c r="DD41" s="2"/>
       <c r="DE41" s="2"/>
       <c r="DF41" s="2"/>
@@ -5947,34 +5820,34 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="9"/>
       <c r="AX42" s="2"/>
       <c r="AY42" s="2"/>
       <c r="AZ42" s="2"/>
@@ -6005,34 +5878,34 @@
       <c r="BY42" s="2"/>
       <c r="BZ42" s="2"/>
       <c r="CA42" s="2"/>
-      <c r="CB42" s="9"/>
-      <c r="CC42" s="7"/>
-      <c r="CD42" s="7"/>
-      <c r="CE42" s="7"/>
-      <c r="CF42" s="7"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="2"/>
+      <c r="CF42" s="2"/>
       <c r="CG42" s="2"/>
       <c r="CH42" s="2"/>
       <c r="CI42" s="2"/>
       <c r="CJ42" s="2"/>
       <c r="CK42" s="2"/>
       <c r="CL42" s="2"/>
-      <c r="CM42" s="7"/>
-      <c r="CN42" s="7"/>
-      <c r="CO42" s="7"/>
-      <c r="CP42" s="7"/>
-      <c r="CQ42" s="7"/>
-      <c r="CR42" s="7"/>
-      <c r="CS42" s="7"/>
-      <c r="CT42" s="7"/>
-      <c r="CU42" s="7"/>
-      <c r="CV42" s="7"/>
-      <c r="CW42" s="7"/>
-      <c r="CX42" s="7"/>
-      <c r="CY42" s="7"/>
-      <c r="CZ42" s="7"/>
-      <c r="DA42" s="7"/>
-      <c r="DB42" s="7"/>
-      <c r="DC42" s="9"/>
+      <c r="CM42" s="2"/>
+      <c r="CN42" s="2"/>
+      <c r="CO42" s="2"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="2"/>
+      <c r="CS42" s="2"/>
+      <c r="CT42" s="2"/>
+      <c r="CU42" s="2"/>
+      <c r="CV42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CX42" s="2"/>
+      <c r="CY42" s="2"/>
+      <c r="CZ42" s="2"/>
+      <c r="DA42" s="2"/>
+      <c r="DB42" s="2"/>
+      <c r="DC42" s="2"/>
       <c r="DD42" s="2"/>
       <c r="DE42" s="2"/>
       <c r="DF42" s="2"/>
@@ -6076,34 +5949,34 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="9"/>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
       <c r="AY43" s="2"/>
@@ -6136,34 +6009,34 @@
       <c r="BZ43" s="2"/>
       <c r="CA43" s="2"/>
       <c r="CB43" s="2"/>
-      <c r="CC43" s="9"/>
-      <c r="CD43" s="7"/>
-      <c r="CE43" s="7"/>
-      <c r="CF43" s="7"/>
+      <c r="CC43" s="2"/>
+      <c r="CD43" s="2"/>
+      <c r="CE43" s="2"/>
+      <c r="CF43" s="2"/>
       <c r="CG43" s="2"/>
       <c r="CH43" s="2"/>
       <c r="CI43" s="2"/>
       <c r="CJ43" s="2"/>
       <c r="CK43" s="2"/>
       <c r="CL43" s="2"/>
-      <c r="CM43" s="7"/>
-      <c r="CN43" s="7"/>
-      <c r="CO43" s="7"/>
-      <c r="CP43" s="7"/>
-      <c r="CQ43" s="7"/>
-      <c r="CR43" s="7"/>
-      <c r="CS43" s="7"/>
-      <c r="CT43" s="7"/>
-      <c r="CU43" s="7"/>
-      <c r="CV43" s="7"/>
-      <c r="CW43" s="7"/>
-      <c r="CX43" s="7"/>
-      <c r="CY43" s="7"/>
-      <c r="CZ43" s="7"/>
-      <c r="DA43" s="7"/>
-      <c r="DB43" s="7"/>
-      <c r="DC43" s="7"/>
-      <c r="DD43" s="3"/>
+      <c r="CM43" s="2"/>
+      <c r="CN43" s="2"/>
+      <c r="CO43" s="2"/>
+      <c r="CP43" s="2"/>
+      <c r="CQ43" s="2"/>
+      <c r="CR43" s="2"/>
+      <c r="CS43" s="2"/>
+      <c r="CT43" s="2"/>
+      <c r="CU43" s="2"/>
+      <c r="CV43" s="2"/>
+      <c r="CW43" s="2"/>
+      <c r="CX43" s="2"/>
+      <c r="CY43" s="2"/>
+      <c r="CZ43" s="2"/>
+      <c r="DA43" s="2"/>
+      <c r="DB43" s="2"/>
+      <c r="DC43" s="2"/>
+      <c r="DD43" s="2"/>
       <c r="DE43" s="2"/>
       <c r="DF43" s="2"/>
       <c r="DG43" s="2"/>
@@ -6206,33 +6079,33 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="9"/>
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
@@ -6267,33 +6140,33 @@
       <c r="CA44" s="2"/>
       <c r="CB44" s="2"/>
       <c r="CC44" s="2"/>
-      <c r="CD44" s="9"/>
-      <c r="CE44" s="7"/>
-      <c r="CF44" s="7"/>
+      <c r="CD44" s="2"/>
+      <c r="CE44" s="2"/>
+      <c r="CF44" s="2"/>
       <c r="CG44" s="2"/>
       <c r="CH44" s="2"/>
       <c r="CI44" s="2"/>
       <c r="CJ44" s="2"/>
       <c r="CK44" s="2"/>
       <c r="CL44" s="2"/>
-      <c r="CM44" s="7"/>
-      <c r="CN44" s="7"/>
-      <c r="CO44" s="7"/>
-      <c r="CP44" s="7"/>
-      <c r="CQ44" s="7"/>
-      <c r="CR44" s="7"/>
-      <c r="CS44" s="7"/>
-      <c r="CT44" s="7"/>
-      <c r="CU44" s="7"/>
-      <c r="CV44" s="7"/>
-      <c r="CW44" s="7"/>
-      <c r="CX44" s="7"/>
-      <c r="CY44" s="7"/>
-      <c r="CZ44" s="7"/>
-      <c r="DA44" s="7"/>
-      <c r="DB44" s="7"/>
-      <c r="DC44" s="7"/>
-      <c r="DD44" s="9"/>
+      <c r="CM44" s="2"/>
+      <c r="CN44" s="2"/>
+      <c r="CO44" s="2"/>
+      <c r="CP44" s="2"/>
+      <c r="CQ44" s="2"/>
+      <c r="CR44" s="2"/>
+      <c r="CS44" s="2"/>
+      <c r="CT44" s="2"/>
+      <c r="CU44" s="2"/>
+      <c r="CV44" s="2"/>
+      <c r="CW44" s="2"/>
+      <c r="CX44" s="2"/>
+      <c r="CY44" s="2"/>
+      <c r="CZ44" s="2"/>
+      <c r="DA44" s="2"/>
+      <c r="DB44" s="2"/>
+      <c r="DC44" s="2"/>
+      <c r="DD44" s="2"/>
       <c r="DE44" s="2"/>
       <c r="DF44" s="2"/>
       <c r="DG44" s="2"/>
@@ -6335,8 +6208,8 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="10"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
@@ -6354,12 +6227,12 @@
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
-      <c r="AM45" s="7"/>
-      <c r="AN45" s="7"/>
-      <c r="AO45" s="7"/>
-      <c r="AP45" s="7"/>
-      <c r="AQ45" s="7"/>
-      <c r="AR45" s="7"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
       <c r="AS45" s="7"/>
       <c r="AT45" s="9"/>
       <c r="AU45" s="2"/>
@@ -6400,12 +6273,12 @@
       <c r="CD45" s="2"/>
       <c r="CE45" s="9"/>
       <c r="CF45" s="7"/>
-      <c r="CG45" s="2"/>
-      <c r="CH45" s="2"/>
-      <c r="CI45" s="2"/>
-      <c r="CJ45" s="2"/>
-      <c r="CK45" s="2"/>
-      <c r="CL45" s="2"/>
+      <c r="CG45" s="7"/>
+      <c r="CH45" s="7"/>
+      <c r="CI45" s="7"/>
+      <c r="CJ45" s="7"/>
+      <c r="CK45" s="7"/>
+      <c r="CL45" s="7"/>
       <c r="CM45" s="7"/>
       <c r="CN45" s="7"/>
       <c r="CO45" s="7"/>
@@ -6423,8 +6296,8 @@
       <c r="DA45" s="7"/>
       <c r="DB45" s="7"/>
       <c r="DC45" s="7"/>
-      <c r="DD45" s="12"/>
-      <c r="DE45" s="13"/>
+      <c r="DD45" s="10"/>
+      <c r="DE45" s="12"/>
       <c r="DF45" s="2"/>
       <c r="DG45" s="2"/>
       <c r="DH45" s="2"/>
@@ -6465,7 +6338,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="14"/>
+      <c r="T46" s="13"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
@@ -6484,12 +6357,12 @@
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
-      <c r="AM46" s="7"/>
-      <c r="AN46" s="7"/>
-      <c r="AO46" s="7"/>
-      <c r="AP46" s="7"/>
-      <c r="AQ46" s="7"/>
-      <c r="AR46" s="7"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
       <c r="AS46" s="9"/>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
@@ -6530,12 +6403,12 @@
       <c r="CD46" s="2"/>
       <c r="CE46" s="2"/>
       <c r="CF46" s="9"/>
-      <c r="CG46" s="2"/>
-      <c r="CH46" s="2"/>
-      <c r="CI46" s="2"/>
-      <c r="CJ46" s="2"/>
-      <c r="CK46" s="2"/>
-      <c r="CL46" s="2"/>
+      <c r="CG46" s="7"/>
+      <c r="CH46" s="7"/>
+      <c r="CI46" s="7"/>
+      <c r="CJ46" s="7"/>
+      <c r="CK46" s="7"/>
+      <c r="CL46" s="7"/>
       <c r="CM46" s="7"/>
       <c r="CN46" s="7"/>
       <c r="CO46" s="7"/>
@@ -6554,7 +6427,7 @@
       <c r="DB46" s="7"/>
       <c r="DC46" s="7"/>
       <c r="DD46" s="7"/>
-      <c r="DE46" s="14"/>
+      <c r="DE46" s="13"/>
       <c r="DF46" s="2"/>
       <c r="DG46" s="2"/>
       <c r="DH46" s="2"/>
@@ -6595,7 +6468,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="15"/>
+      <c r="T47" s="14"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -6614,12 +6487,12 @@
       <c r="AJ47" s="7"/>
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
-      <c r="AM47" s="7"/>
-      <c r="AN47" s="7"/>
-      <c r="AO47" s="7"/>
-      <c r="AP47" s="7"/>
-      <c r="AQ47" s="7"/>
-      <c r="AR47" s="9"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
@@ -6660,12 +6533,12 @@
       <c r="CD47" s="2"/>
       <c r="CE47" s="2"/>
       <c r="CF47" s="2"/>
-      <c r="CG47" s="2"/>
-      <c r="CH47" s="2"/>
-      <c r="CI47" s="2"/>
-      <c r="CJ47" s="2"/>
-      <c r="CK47" s="2"/>
-      <c r="CL47" s="2"/>
+      <c r="CG47" s="9"/>
+      <c r="CH47" s="7"/>
+      <c r="CI47" s="7"/>
+      <c r="CJ47" s="7"/>
+      <c r="CK47" s="7"/>
+      <c r="CL47" s="7"/>
       <c r="CM47" s="7"/>
       <c r="CN47" s="7"/>
       <c r="CO47" s="7"/>
@@ -6684,7 +6557,7 @@
       <c r="DB47" s="7"/>
       <c r="DC47" s="7"/>
       <c r="DD47" s="7"/>
-      <c r="DE47" s="15"/>
+      <c r="DE47" s="14"/>
       <c r="DF47" s="2"/>
       <c r="DG47" s="2"/>
       <c r="DH47" s="2"/>
@@ -6724,7 +6597,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="8"/>
+      <c r="S48" s="3"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
@@ -6744,11 +6617,11 @@
       <c r="AJ48" s="7"/>
       <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
-      <c r="AM48" s="7"/>
-      <c r="AN48" s="7"/>
-      <c r="AO48" s="7"/>
-      <c r="AP48" s="7"/>
-      <c r="AQ48" s="9"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
@@ -6791,11 +6664,11 @@
       <c r="CE48" s="2"/>
       <c r="CF48" s="2"/>
       <c r="CG48" s="2"/>
-      <c r="CH48" s="2"/>
-      <c r="CI48" s="2"/>
-      <c r="CJ48" s="2"/>
-      <c r="CK48" s="2"/>
-      <c r="CL48" s="2"/>
+      <c r="CH48" s="9"/>
+      <c r="CI48" s="7"/>
+      <c r="CJ48" s="7"/>
+      <c r="CK48" s="7"/>
+      <c r="CL48" s="7"/>
       <c r="CM48" s="7"/>
       <c r="CN48" s="7"/>
       <c r="CO48" s="7"/>
@@ -6815,7 +6688,7 @@
       <c r="DC48" s="7"/>
       <c r="DD48" s="7"/>
       <c r="DE48" s="7"/>
-      <c r="DF48" s="8"/>
+      <c r="DF48" s="3"/>
       <c r="DG48" s="2"/>
       <c r="DH48" s="2"/>
       <c r="DI48" s="2"/>
@@ -6854,7 +6727,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="9"/>
+      <c r="S49" s="11"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -6874,10 +6747,10 @@
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
-      <c r="AM49" s="7"/>
-      <c r="AN49" s="7"/>
-      <c r="AO49" s="7"/>
-      <c r="AP49" s="9"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
       <c r="AQ49" s="2"/>
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
@@ -6922,10 +6795,10 @@
       <c r="CF49" s="2"/>
       <c r="CG49" s="2"/>
       <c r="CH49" s="2"/>
-      <c r="CI49" s="2"/>
-      <c r="CJ49" s="2"/>
-      <c r="CK49" s="2"/>
-      <c r="CL49" s="2"/>
+      <c r="CI49" s="9"/>
+      <c r="CJ49" s="7"/>
+      <c r="CK49" s="7"/>
+      <c r="CL49" s="7"/>
       <c r="CM49" s="7"/>
       <c r="CN49" s="7"/>
       <c r="CO49" s="7"/>
@@ -6945,7 +6818,7 @@
       <c r="DC49" s="7"/>
       <c r="DD49" s="7"/>
       <c r="DE49" s="7"/>
-      <c r="DF49" s="11"/>
+      <c r="DF49" s="9"/>
       <c r="DG49" s="2"/>
       <c r="DH49" s="2"/>
       <c r="DI49" s="2"/>
@@ -6984,8 +6857,8 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="7"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="4"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
@@ -7004,9 +6877,9 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="9"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
@@ -7053,9 +6926,9 @@
       <c r="CG50" s="2"/>
       <c r="CH50" s="2"/>
       <c r="CI50" s="2"/>
-      <c r="CJ50" s="2"/>
-      <c r="CK50" s="2"/>
-      <c r="CL50" s="2"/>
+      <c r="CJ50" s="9"/>
+      <c r="CK50" s="7"/>
+      <c r="CL50" s="7"/>
       <c r="CM50" s="7"/>
       <c r="CN50" s="7"/>
       <c r="CO50" s="7"/>
@@ -7074,8 +6947,8 @@
       <c r="DB50" s="7"/>
       <c r="DC50" s="7"/>
       <c r="DD50" s="7"/>
-      <c r="DE50" s="4"/>
-      <c r="DF50" s="2"/>
+      <c r="DE50" s="7"/>
+      <c r="DF50" s="10"/>
       <c r="DG50" s="2"/>
       <c r="DH50" s="2"/>
       <c r="DI50" s="2"/>
@@ -7113,10 +6986,10 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="4"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
@@ -7134,8 +7007,8 @@
       <c r="AJ51" s="7"/>
       <c r="AK51" s="7"/>
       <c r="AL51" s="7"/>
-      <c r="AM51" s="7"/>
-      <c r="AN51" s="9"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
@@ -7184,8 +7057,8 @@
       <c r="CH51" s="2"/>
       <c r="CI51" s="2"/>
       <c r="CJ51" s="2"/>
-      <c r="CK51" s="2"/>
-      <c r="CL51" s="2"/>
+      <c r="CK51" s="9"/>
+      <c r="CL51" s="7"/>
       <c r="CM51" s="7"/>
       <c r="CN51" s="7"/>
       <c r="CO51" s="7"/>
@@ -7203,10 +7076,10 @@
       <c r="DA51" s="7"/>
       <c r="DB51" s="7"/>
       <c r="DC51" s="7"/>
-      <c r="DD51" s="4"/>
-      <c r="DE51" s="2"/>
-      <c r="DF51" s="2"/>
-      <c r="DG51" s="2"/>
+      <c r="DD51" s="7"/>
+      <c r="DE51" s="7"/>
+      <c r="DF51" s="7"/>
+      <c r="DG51" s="8"/>
       <c r="DH51" s="2"/>
       <c r="DI51" s="2"/>
       <c r="DJ51" s="2"/>
@@ -7243,11 +7116,11 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="4"/>
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
@@ -7264,7 +7137,7 @@
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
-      <c r="AM52" s="9"/>
+      <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
@@ -7315,7 +7188,7 @@
       <c r="CI52" s="2"/>
       <c r="CJ52" s="2"/>
       <c r="CK52" s="2"/>
-      <c r="CL52" s="2"/>
+      <c r="CL52" s="9"/>
       <c r="CM52" s="7"/>
       <c r="CN52" s="7"/>
       <c r="CO52" s="7"/>
@@ -7332,11 +7205,11 @@
       <c r="CZ52" s="7"/>
       <c r="DA52" s="7"/>
       <c r="DB52" s="7"/>
-      <c r="DC52" s="4"/>
-      <c r="DD52" s="2"/>
-      <c r="DE52" s="2"/>
-      <c r="DF52" s="2"/>
-      <c r="DG52" s="2"/>
+      <c r="DC52" s="7"/>
+      <c r="DD52" s="7"/>
+      <c r="DE52" s="7"/>
+      <c r="DF52" s="7"/>
+      <c r="DG52" s="5"/>
       <c r="DH52" s="2"/>
       <c r="DI52" s="2"/>
       <c r="DJ52" s="2"/>
@@ -7373,12 +7246,12 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="4"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
@@ -7393,7 +7266,7 @@
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
       <c r="AK53" s="7"/>
-      <c r="AL53" s="9"/>
+      <c r="AL53" s="7"/>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
@@ -7446,7 +7319,7 @@
       <c r="CJ53" s="2"/>
       <c r="CK53" s="2"/>
       <c r="CL53" s="2"/>
-      <c r="CM53" s="7"/>
+      <c r="CM53" s="9"/>
       <c r="CN53" s="7"/>
       <c r="CO53" s="7"/>
       <c r="CP53" s="7"/>
@@ -7461,12 +7334,12 @@
       <c r="CY53" s="7"/>
       <c r="CZ53" s="7"/>
       <c r="DA53" s="7"/>
-      <c r="DB53" s="4"/>
-      <c r="DC53" s="2"/>
-      <c r="DD53" s="2"/>
-      <c r="DE53" s="2"/>
-      <c r="DF53" s="2"/>
-      <c r="DG53" s="2"/>
+      <c r="DB53" s="7"/>
+      <c r="DC53" s="7"/>
+      <c r="DD53" s="7"/>
+      <c r="DE53" s="7"/>
+      <c r="DF53" s="7"/>
+      <c r="DG53" s="6"/>
       <c r="DH53" s="2"/>
       <c r="DI53" s="2"/>
       <c r="DJ53" s="2"/>
@@ -7503,13 +7376,13 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="4"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
@@ -7522,8 +7395,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="2"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
@@ -7576,8 +7449,8 @@
       <c r="CJ54" s="2"/>
       <c r="CK54" s="2"/>
       <c r="CL54" s="2"/>
-      <c r="CM54" s="7"/>
-      <c r="CN54" s="7"/>
+      <c r="CM54" s="2"/>
+      <c r="CN54" s="9"/>
       <c r="CO54" s="7"/>
       <c r="CP54" s="7"/>
       <c r="CQ54" s="7"/>
@@ -7590,13 +7463,13 @@
       <c r="CX54" s="7"/>
       <c r="CY54" s="7"/>
       <c r="CZ54" s="7"/>
-      <c r="DA54" s="4"/>
-      <c r="DB54" s="2"/>
-      <c r="DC54" s="2"/>
-      <c r="DD54" s="2"/>
-      <c r="DE54" s="2"/>
-      <c r="DF54" s="2"/>
-      <c r="DG54" s="2"/>
+      <c r="DA54" s="7"/>
+      <c r="DB54" s="7"/>
+      <c r="DC54" s="7"/>
+      <c r="DD54" s="7"/>
+      <c r="DE54" s="7"/>
+      <c r="DF54" s="7"/>
+      <c r="DG54" s="7"/>
       <c r="DH54" s="2"/>
       <c r="DI54" s="2"/>
       <c r="DJ54" s="2"/>
@@ -7632,15 +7505,15 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="4"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
@@ -7651,9 +7524,9 @@
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
-      <c r="AJ55" s="9"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
@@ -7706,9 +7579,9 @@
       <c r="CJ55" s="2"/>
       <c r="CK55" s="2"/>
       <c r="CL55" s="2"/>
-      <c r="CM55" s="7"/>
-      <c r="CN55" s="7"/>
-      <c r="CO55" s="7"/>
+      <c r="CM55" s="2"/>
+      <c r="CN55" s="2"/>
+      <c r="CO55" s="9"/>
       <c r="CP55" s="7"/>
       <c r="CQ55" s="7"/>
       <c r="CR55" s="7"/>
@@ -7719,15 +7592,15 @@
       <c r="CW55" s="7"/>
       <c r="CX55" s="7"/>
       <c r="CY55" s="7"/>
-      <c r="CZ55" s="4"/>
-      <c r="DA55" s="2"/>
-      <c r="DB55" s="2"/>
-      <c r="DC55" s="2"/>
-      <c r="DD55" s="2"/>
-      <c r="DE55" s="2"/>
-      <c r="DF55" s="2"/>
-      <c r="DG55" s="2"/>
-      <c r="DH55" s="2"/>
+      <c r="CZ55" s="7"/>
+      <c r="DA55" s="7"/>
+      <c r="DB55" s="7"/>
+      <c r="DC55" s="7"/>
+      <c r="DD55" s="7"/>
+      <c r="DE55" s="7"/>
+      <c r="DF55" s="7"/>
+      <c r="DG55" s="7"/>
+      <c r="DH55" s="3"/>
       <c r="DI55" s="2"/>
       <c r="DJ55" s="2"/>
       <c r="DK55" s="2"/>
@@ -7763,15 +7636,15 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="4"/>
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7"/>
@@ -7780,10 +7653,10 @@
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
@@ -7836,10 +7709,10 @@
       <c r="CJ56" s="2"/>
       <c r="CK56" s="2"/>
       <c r="CL56" s="2"/>
-      <c r="CM56" s="7"/>
-      <c r="CN56" s="7"/>
-      <c r="CO56" s="7"/>
-      <c r="CP56" s="7"/>
+      <c r="CM56" s="2"/>
+      <c r="CN56" s="2"/>
+      <c r="CO56" s="2"/>
+      <c r="CP56" s="9"/>
       <c r="CQ56" s="7"/>
       <c r="CR56" s="7"/>
       <c r="CS56" s="7"/>
@@ -7848,15 +7721,15 @@
       <c r="CV56" s="7"/>
       <c r="CW56" s="7"/>
       <c r="CX56" s="7"/>
-      <c r="CY56" s="4"/>
-      <c r="CZ56" s="2"/>
-      <c r="DA56" s="2"/>
-      <c r="DB56" s="2"/>
-      <c r="DC56" s="2"/>
-      <c r="DD56" s="2"/>
-      <c r="DE56" s="2"/>
-      <c r="DF56" s="2"/>
-      <c r="DG56" s="9"/>
+      <c r="CY56" s="7"/>
+      <c r="CZ56" s="7"/>
+      <c r="DA56" s="7"/>
+      <c r="DB56" s="7"/>
+      <c r="DC56" s="7"/>
+      <c r="DD56" s="7"/>
+      <c r="DE56" s="7"/>
+      <c r="DF56" s="7"/>
+      <c r="DG56" s="7"/>
       <c r="DH56" s="4"/>
       <c r="DI56" s="2"/>
       <c r="DJ56" s="2"/>
@@ -7894,26 +7767,26 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="4"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
@@ -7966,26 +7839,26 @@
       <c r="CJ57" s="2"/>
       <c r="CK57" s="2"/>
       <c r="CL57" s="2"/>
-      <c r="CM57" s="7"/>
-      <c r="CN57" s="7"/>
-      <c r="CO57" s="7"/>
-      <c r="CP57" s="7"/>
-      <c r="CQ57" s="7"/>
+      <c r="CM57" s="2"/>
+      <c r="CN57" s="2"/>
+      <c r="CO57" s="2"/>
+      <c r="CP57" s="2"/>
+      <c r="CQ57" s="9"/>
       <c r="CR57" s="7"/>
       <c r="CS57" s="7"/>
       <c r="CT57" s="7"/>
       <c r="CU57" s="7"/>
       <c r="CV57" s="7"/>
       <c r="CW57" s="7"/>
-      <c r="CX57" s="4"/>
-      <c r="CY57" s="2"/>
-      <c r="CZ57" s="2"/>
-      <c r="DA57" s="2"/>
-      <c r="DB57" s="2"/>
-      <c r="DC57" s="2"/>
-      <c r="DD57" s="2"/>
-      <c r="DE57" s="2"/>
-      <c r="DF57" s="9"/>
+      <c r="CX57" s="7"/>
+      <c r="CY57" s="7"/>
+      <c r="CZ57" s="7"/>
+      <c r="DA57" s="7"/>
+      <c r="DB57" s="7"/>
+      <c r="DC57" s="7"/>
+      <c r="DD57" s="7"/>
+      <c r="DE57" s="7"/>
+      <c r="DF57" s="7"/>
       <c r="DG57" s="7"/>
       <c r="DH57" s="5"/>
       <c r="DI57" s="2"/>
@@ -8025,25 +7898,25 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="4"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="2"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
@@ -8096,25 +7969,25 @@
       <c r="CJ58" s="2"/>
       <c r="CK58" s="2"/>
       <c r="CL58" s="2"/>
-      <c r="CM58" s="7"/>
-      <c r="CN58" s="7"/>
-      <c r="CO58" s="7"/>
-      <c r="CP58" s="7"/>
-      <c r="CQ58" s="7"/>
-      <c r="CR58" s="7"/>
+      <c r="CM58" s="2"/>
+      <c r="CN58" s="2"/>
+      <c r="CO58" s="2"/>
+      <c r="CP58" s="2"/>
+      <c r="CQ58" s="2"/>
+      <c r="CR58" s="9"/>
       <c r="CS58" s="7"/>
       <c r="CT58" s="7"/>
       <c r="CU58" s="7"/>
       <c r="CV58" s="7"/>
-      <c r="CW58" s="4"/>
-      <c r="CX58" s="2"/>
-      <c r="CY58" s="2"/>
-      <c r="CZ58" s="2"/>
-      <c r="DA58" s="2"/>
-      <c r="DB58" s="2"/>
-      <c r="DC58" s="2"/>
-      <c r="DD58" s="2"/>
-      <c r="DE58" s="9"/>
+      <c r="CW58" s="7"/>
+      <c r="CX58" s="7"/>
+      <c r="CY58" s="7"/>
+      <c r="CZ58" s="7"/>
+      <c r="DA58" s="7"/>
+      <c r="DB58" s="7"/>
+      <c r="DC58" s="7"/>
+      <c r="DD58" s="7"/>
+      <c r="DE58" s="7"/>
       <c r="DF58" s="7"/>
       <c r="DG58" s="7"/>
       <c r="DH58" s="6"/>
@@ -8156,24 +8029,24 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="4"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
-      <c r="AF59" s="9"/>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="2"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
@@ -8226,24 +8099,24 @@
       <c r="CJ59" s="2"/>
       <c r="CK59" s="2"/>
       <c r="CL59" s="2"/>
-      <c r="CM59" s="7"/>
-      <c r="CN59" s="7"/>
-      <c r="CO59" s="7"/>
-      <c r="CP59" s="7"/>
-      <c r="CQ59" s="7"/>
-      <c r="CR59" s="7"/>
-      <c r="CS59" s="7"/>
+      <c r="CM59" s="2"/>
+      <c r="CN59" s="2"/>
+      <c r="CO59" s="2"/>
+      <c r="CP59" s="2"/>
+      <c r="CQ59" s="2"/>
+      <c r="CR59" s="2"/>
+      <c r="CS59" s="9"/>
       <c r="CT59" s="7"/>
       <c r="CU59" s="7"/>
-      <c r="CV59" s="4"/>
-      <c r="CW59" s="2"/>
-      <c r="CX59" s="2"/>
-      <c r="CY59" s="2"/>
-      <c r="CZ59" s="2"/>
-      <c r="DA59" s="2"/>
-      <c r="DB59" s="2"/>
-      <c r="DC59" s="2"/>
-      <c r="DD59" s="9"/>
+      <c r="CV59" s="7"/>
+      <c r="CW59" s="7"/>
+      <c r="CX59" s="7"/>
+      <c r="CY59" s="7"/>
+      <c r="CZ59" s="7"/>
+      <c r="DA59" s="7"/>
+      <c r="DB59" s="7"/>
+      <c r="DC59" s="7"/>
+      <c r="DD59" s="7"/>
       <c r="DE59" s="7"/>
       <c r="DF59" s="7"/>
       <c r="DG59" s="7"/>
@@ -8287,23 +8160,23 @@
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="9"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -8356,23 +8229,23 @@
       <c r="CJ60" s="2"/>
       <c r="CK60" s="2"/>
       <c r="CL60" s="2"/>
-      <c r="CM60" s="7"/>
-      <c r="CN60" s="7"/>
-      <c r="CO60" s="7"/>
-      <c r="CP60" s="7"/>
-      <c r="CQ60" s="7"/>
-      <c r="CR60" s="7"/>
-      <c r="CS60" s="7"/>
-      <c r="CT60" s="7"/>
-      <c r="CU60" s="4"/>
-      <c r="CV60" s="2"/>
-      <c r="CW60" s="2"/>
-      <c r="CX60" s="2"/>
-      <c r="CY60" s="2"/>
-      <c r="CZ60" s="2"/>
-      <c r="DA60" s="2"/>
-      <c r="DB60" s="2"/>
-      <c r="DC60" s="9"/>
+      <c r="CM60" s="2"/>
+      <c r="CN60" s="2"/>
+      <c r="CO60" s="2"/>
+      <c r="CP60" s="2"/>
+      <c r="CQ60" s="2"/>
+      <c r="CR60" s="2"/>
+      <c r="CS60" s="2"/>
+      <c r="CT60" s="9"/>
+      <c r="CU60" s="7"/>
+      <c r="CV60" s="7"/>
+      <c r="CW60" s="7"/>
+      <c r="CX60" s="7"/>
+      <c r="CY60" s="7"/>
+      <c r="CZ60" s="7"/>
+      <c r="DA60" s="7"/>
+      <c r="DB60" s="7"/>
+      <c r="DC60" s="7"/>
       <c r="DD60" s="7"/>
       <c r="DE60" s="7"/>
       <c r="DF60" s="7"/>
@@ -8418,22 +8291,22 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="4"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
@@ -8486,22 +8359,22 @@
       <c r="CJ61" s="2"/>
       <c r="CK61" s="2"/>
       <c r="CL61" s="2"/>
-      <c r="CM61" s="7"/>
-      <c r="CN61" s="7"/>
-      <c r="CO61" s="7"/>
-      <c r="CP61" s="7"/>
-      <c r="CQ61" s="7"/>
-      <c r="CR61" s="7"/>
-      <c r="CS61" s="7"/>
-      <c r="CT61" s="4"/>
-      <c r="CU61" s="2"/>
-      <c r="CV61" s="2"/>
-      <c r="CW61" s="2"/>
-      <c r="CX61" s="2"/>
-      <c r="CY61" s="2"/>
-      <c r="CZ61" s="2"/>
-      <c r="DA61" s="2"/>
-      <c r="DB61" s="9"/>
+      <c r="CM61" s="4"/>
+      <c r="CN61" s="2"/>
+      <c r="CO61" s="2"/>
+      <c r="CP61" s="2"/>
+      <c r="CQ61" s="2"/>
+      <c r="CR61" s="2"/>
+      <c r="CS61" s="2"/>
+      <c r="CT61" s="2"/>
+      <c r="CU61" s="9"/>
+      <c r="CV61" s="7"/>
+      <c r="CW61" s="7"/>
+      <c r="CX61" s="7"/>
+      <c r="CY61" s="7"/>
+      <c r="CZ61" s="7"/>
+      <c r="DA61" s="7"/>
+      <c r="DB61" s="7"/>
       <c r="DC61" s="7"/>
       <c r="DD61" s="7"/>
       <c r="DE61" s="7"/>
@@ -8549,20 +8422,20 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="7"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="2"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
-      <c r="AK62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
@@ -8617,20 +8490,20 @@
       <c r="CK62" s="2"/>
       <c r="CL62" s="2"/>
       <c r="CM62" s="7"/>
-      <c r="CN62" s="7"/>
-      <c r="CO62" s="7"/>
-      <c r="CP62" s="7"/>
-      <c r="CQ62" s="7"/>
-      <c r="CR62" s="7"/>
-      <c r="CS62" s="4"/>
+      <c r="CN62" s="4"/>
+      <c r="CO62" s="2"/>
+      <c r="CP62" s="2"/>
+      <c r="CQ62" s="2"/>
+      <c r="CR62" s="2"/>
+      <c r="CS62" s="2"/>
       <c r="CT62" s="2"/>
       <c r="CU62" s="2"/>
-      <c r="CV62" s="2"/>
-      <c r="CW62" s="2"/>
-      <c r="CX62" s="2"/>
-      <c r="CY62" s="2"/>
-      <c r="CZ62" s="2"/>
-      <c r="DA62" s="9"/>
+      <c r="CV62" s="9"/>
+      <c r="CW62" s="7"/>
+      <c r="CX62" s="7"/>
+      <c r="CY62" s="7"/>
+      <c r="CZ62" s="7"/>
+      <c r="DA62" s="7"/>
       <c r="DB62" s="7"/>
       <c r="DC62" s="7"/>
       <c r="DD62" s="7"/>
@@ -8680,18 +8553,18 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="2"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="2"/>
@@ -8748,18 +8621,18 @@
       <c r="CL63" s="2"/>
       <c r="CM63" s="7"/>
       <c r="CN63" s="7"/>
-      <c r="CO63" s="7"/>
-      <c r="CP63" s="7"/>
-      <c r="CQ63" s="7"/>
-      <c r="CR63" s="4"/>
+      <c r="CO63" s="4"/>
+      <c r="CP63" s="2"/>
+      <c r="CQ63" s="2"/>
+      <c r="CR63" s="2"/>
       <c r="CS63" s="2"/>
       <c r="CT63" s="2"/>
       <c r="CU63" s="2"/>
       <c r="CV63" s="2"/>
-      <c r="CW63" s="2"/>
-      <c r="CX63" s="2"/>
-      <c r="CY63" s="2"/>
-      <c r="CZ63" s="9"/>
+      <c r="CW63" s="9"/>
+      <c r="CX63" s="7"/>
+      <c r="CY63" s="7"/>
+      <c r="CZ63" s="7"/>
       <c r="DA63" s="7"/>
       <c r="DB63" s="7"/>
       <c r="DC63" s="7"/>
@@ -8801,7 +8674,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+      <c r="P64" s="15"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -8811,16 +8684,16 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
-      <c r="AH64" s="2"/>
-      <c r="AI64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="7"/>
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
@@ -8879,16 +8752,16 @@
       <c r="CM64" s="7"/>
       <c r="CN64" s="7"/>
       <c r="CO64" s="7"/>
-      <c r="CP64" s="7"/>
-      <c r="CQ64" s="4"/>
+      <c r="CP64" s="4"/>
+      <c r="CQ64" s="2"/>
       <c r="CR64" s="2"/>
       <c r="CS64" s="2"/>
       <c r="CT64" s="2"/>
       <c r="CU64" s="2"/>
       <c r="CV64" s="2"/>
       <c r="CW64" s="2"/>
-      <c r="CX64" s="2"/>
-      <c r="CY64" s="9"/>
+      <c r="CX64" s="9"/>
+      <c r="CY64" s="7"/>
       <c r="CZ64" s="7"/>
       <c r="DA64" s="7"/>
       <c r="DB64" s="7"/>
@@ -8941,16 +8814,16 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="2"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="9"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
-      <c r="AH65" s="4"/>
-      <c r="AI65" s="7"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="4"/>
       <c r="AJ65" s="7"/>
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
@@ -9009,16 +8882,16 @@
       <c r="CM65" s="7"/>
       <c r="CN65" s="7"/>
       <c r="CO65" s="7"/>
-      <c r="CP65" s="4"/>
-      <c r="CQ65" s="2"/>
+      <c r="CP65" s="7"/>
+      <c r="CQ65" s="4"/>
       <c r="CR65" s="2"/>
       <c r="CS65" s="2"/>
       <c r="CT65" s="2"/>
       <c r="CU65" s="2"/>
       <c r="CV65" s="2"/>
       <c r="CW65" s="2"/>
-      <c r="CX65" s="9"/>
-      <c r="CY65" s="7"/>
+      <c r="CX65" s="2"/>
+      <c r="CY65" s="9"/>
       <c r="CZ65" s="7"/>
       <c r="DA65" s="7"/>
       <c r="DB65" s="7"/>
@@ -9070,18 +8943,18 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="9"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="7"/>
-      <c r="AI66" s="7"/>
-      <c r="AJ66" s="7"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="4"/>
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="2"/>
@@ -9138,18 +9011,18 @@
       <c r="CL66" s="2"/>
       <c r="CM66" s="7"/>
       <c r="CN66" s="7"/>
-      <c r="CO66" s="4"/>
-      <c r="CP66" s="2"/>
-      <c r="CQ66" s="2"/>
-      <c r="CR66" s="2"/>
+      <c r="CO66" s="7"/>
+      <c r="CP66" s="7"/>
+      <c r="CQ66" s="7"/>
+      <c r="CR66" s="4"/>
       <c r="CS66" s="2"/>
       <c r="CT66" s="2"/>
       <c r="CU66" s="2"/>
       <c r="CV66" s="2"/>
-      <c r="CW66" s="9"/>
-      <c r="CX66" s="7"/>
-      <c r="CY66" s="7"/>
-      <c r="CZ66" s="7"/>
+      <c r="CW66" s="2"/>
+      <c r="CX66" s="2"/>
+      <c r="CY66" s="2"/>
+      <c r="CZ66" s="9"/>
       <c r="DA66" s="7"/>
       <c r="DB66" s="7"/>
       <c r="DC66" s="7"/>
@@ -9199,20 +9072,20 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="9"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="7"/>
-      <c r="AH67" s="7"/>
-      <c r="AI67" s="7"/>
-      <c r="AJ67" s="7"/>
-      <c r="AK67" s="7"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="4"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
@@ -9267,20 +9140,20 @@
       <c r="CK67" s="2"/>
       <c r="CL67" s="2"/>
       <c r="CM67" s="7"/>
-      <c r="CN67" s="4"/>
-      <c r="CO67" s="2"/>
-      <c r="CP67" s="2"/>
-      <c r="CQ67" s="2"/>
-      <c r="CR67" s="2"/>
-      <c r="CS67" s="2"/>
+      <c r="CN67" s="7"/>
+      <c r="CO67" s="7"/>
+      <c r="CP67" s="7"/>
+      <c r="CQ67" s="7"/>
+      <c r="CR67" s="7"/>
+      <c r="CS67" s="4"/>
       <c r="CT67" s="2"/>
       <c r="CU67" s="2"/>
-      <c r="CV67" s="9"/>
-      <c r="CW67" s="7"/>
-      <c r="CX67" s="7"/>
-      <c r="CY67" s="7"/>
-      <c r="CZ67" s="7"/>
-      <c r="DA67" s="7"/>
+      <c r="CV67" s="2"/>
+      <c r="CW67" s="2"/>
+      <c r="CX67" s="2"/>
+      <c r="CY67" s="2"/>
+      <c r="CZ67" s="2"/>
+      <c r="DA67" s="9"/>
       <c r="DB67" s="7"/>
       <c r="DC67" s="7"/>
       <c r="DD67" s="7"/>
@@ -9328,22 +9201,22 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="7"/>
-      <c r="AH68" s="7"/>
-      <c r="AI68" s="7"/>
-      <c r="AJ68" s="7"/>
-      <c r="AK68" s="7"/>
-      <c r="AL68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="4"/>
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
@@ -9396,22 +9269,22 @@
       <c r="CJ68" s="2"/>
       <c r="CK68" s="2"/>
       <c r="CL68" s="2"/>
-      <c r="CM68" s="4"/>
-      <c r="CN68" s="2"/>
-      <c r="CO68" s="2"/>
-      <c r="CP68" s="2"/>
-      <c r="CQ68" s="2"/>
-      <c r="CR68" s="2"/>
-      <c r="CS68" s="2"/>
-      <c r="CT68" s="2"/>
-      <c r="CU68" s="9"/>
-      <c r="CV68" s="7"/>
-      <c r="CW68" s="7"/>
-      <c r="CX68" s="7"/>
-      <c r="CY68" s="7"/>
-      <c r="CZ68" s="7"/>
-      <c r="DA68" s="7"/>
-      <c r="DB68" s="7"/>
+      <c r="CM68" s="7"/>
+      <c r="CN68" s="7"/>
+      <c r="CO68" s="7"/>
+      <c r="CP68" s="7"/>
+      <c r="CQ68" s="7"/>
+      <c r="CR68" s="7"/>
+      <c r="CS68" s="7"/>
+      <c r="CT68" s="4"/>
+      <c r="CU68" s="2"/>
+      <c r="CV68" s="2"/>
+      <c r="CW68" s="2"/>
+      <c r="CX68" s="2"/>
+      <c r="CY68" s="2"/>
+      <c r="CZ68" s="2"/>
+      <c r="DA68" s="2"/>
+      <c r="DB68" s="9"/>
       <c r="DC68" s="7"/>
       <c r="DD68" s="7"/>
       <c r="DE68" s="7"/>
@@ -9457,23 +9330,23 @@
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
-      <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="7"/>
-      <c r="AJ69" s="7"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
@@ -9526,23 +9399,23 @@
       <c r="CJ69" s="2"/>
       <c r="CK69" s="2"/>
       <c r="CL69" s="2"/>
-      <c r="CM69" s="2"/>
-      <c r="CN69" s="2"/>
-      <c r="CO69" s="2"/>
-      <c r="CP69" s="2"/>
-      <c r="CQ69" s="2"/>
-      <c r="CR69" s="2"/>
-      <c r="CS69" s="2"/>
-      <c r="CT69" s="9"/>
-      <c r="CU69" s="7"/>
-      <c r="CV69" s="7"/>
-      <c r="CW69" s="7"/>
-      <c r="CX69" s="7"/>
-      <c r="CY69" s="7"/>
-      <c r="CZ69" s="7"/>
-      <c r="DA69" s="7"/>
-      <c r="DB69" s="7"/>
-      <c r="DC69" s="7"/>
+      <c r="CM69" s="7"/>
+      <c r="CN69" s="7"/>
+      <c r="CO69" s="7"/>
+      <c r="CP69" s="7"/>
+      <c r="CQ69" s="7"/>
+      <c r="CR69" s="7"/>
+      <c r="CS69" s="7"/>
+      <c r="CT69" s="7"/>
+      <c r="CU69" s="4"/>
+      <c r="CV69" s="2"/>
+      <c r="CW69" s="2"/>
+      <c r="CX69" s="2"/>
+      <c r="CY69" s="2"/>
+      <c r="CZ69" s="2"/>
+      <c r="DA69" s="2"/>
+      <c r="DB69" s="2"/>
+      <c r="DC69" s="9"/>
       <c r="DD69" s="7"/>
       <c r="DE69" s="7"/>
       <c r="DF69" s="7"/>
@@ -9586,24 +9459,24 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="4"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
-      <c r="AF70" s="7"/>
-      <c r="AG70" s="7"/>
-      <c r="AH70" s="7"/>
-      <c r="AI70" s="7"/>
-      <c r="AJ70" s="7"/>
-      <c r="AK70" s="7"/>
-      <c r="AL70" s="7"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
@@ -9656,24 +9529,24 @@
       <c r="CJ70" s="2"/>
       <c r="CK70" s="2"/>
       <c r="CL70" s="2"/>
-      <c r="CM70" s="2"/>
-      <c r="CN70" s="2"/>
-      <c r="CO70" s="2"/>
-      <c r="CP70" s="2"/>
-      <c r="CQ70" s="2"/>
-      <c r="CR70" s="2"/>
-      <c r="CS70" s="9"/>
+      <c r="CM70" s="7"/>
+      <c r="CN70" s="7"/>
+      <c r="CO70" s="7"/>
+      <c r="CP70" s="7"/>
+      <c r="CQ70" s="7"/>
+      <c r="CR70" s="7"/>
+      <c r="CS70" s="7"/>
       <c r="CT70" s="7"/>
       <c r="CU70" s="7"/>
-      <c r="CV70" s="7"/>
-      <c r="CW70" s="7"/>
-      <c r="CX70" s="7"/>
-      <c r="CY70" s="7"/>
-      <c r="CZ70" s="7"/>
-      <c r="DA70" s="7"/>
-      <c r="DB70" s="7"/>
-      <c r="DC70" s="7"/>
-      <c r="DD70" s="7"/>
+      <c r="CV70" s="4"/>
+      <c r="CW70" s="2"/>
+      <c r="CX70" s="2"/>
+      <c r="CY70" s="2"/>
+      <c r="CZ70" s="2"/>
+      <c r="DA70" s="2"/>
+      <c r="DB70" s="2"/>
+      <c r="DC70" s="2"/>
+      <c r="DD70" s="9"/>
       <c r="DE70" s="7"/>
       <c r="DF70" s="7"/>
       <c r="DG70" s="7"/>
@@ -9715,25 +9588,25 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="4"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
-      <c r="AG71" s="7"/>
-      <c r="AH71" s="7"/>
-      <c r="AI71" s="7"/>
-      <c r="AJ71" s="7"/>
-      <c r="AK71" s="7"/>
-      <c r="AL71" s="7"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="2"/>
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
@@ -9786,25 +9659,25 @@
       <c r="CJ71" s="2"/>
       <c r="CK71" s="2"/>
       <c r="CL71" s="2"/>
-      <c r="CM71" s="2"/>
-      <c r="CN71" s="2"/>
-      <c r="CO71" s="2"/>
-      <c r="CP71" s="2"/>
-      <c r="CQ71" s="2"/>
-      <c r="CR71" s="9"/>
+      <c r="CM71" s="7"/>
+      <c r="CN71" s="7"/>
+      <c r="CO71" s="7"/>
+      <c r="CP71" s="7"/>
+      <c r="CQ71" s="7"/>
+      <c r="CR71" s="7"/>
       <c r="CS71" s="7"/>
       <c r="CT71" s="7"/>
       <c r="CU71" s="7"/>
       <c r="CV71" s="7"/>
-      <c r="CW71" s="7"/>
-      <c r="CX71" s="7"/>
-      <c r="CY71" s="7"/>
-      <c r="CZ71" s="7"/>
-      <c r="DA71" s="7"/>
-      <c r="DB71" s="7"/>
-      <c r="DC71" s="7"/>
-      <c r="DD71" s="7"/>
-      <c r="DE71" s="7"/>
+      <c r="CW71" s="4"/>
+      <c r="CX71" s="2"/>
+      <c r="CY71" s="2"/>
+      <c r="CZ71" s="2"/>
+      <c r="DA71" s="2"/>
+      <c r="DB71" s="2"/>
+      <c r="DC71" s="2"/>
+      <c r="DD71" s="2"/>
+      <c r="DE71" s="9"/>
       <c r="DF71" s="7"/>
       <c r="DG71" s="7"/>
       <c r="DH71" s="6"/>
@@ -9844,26 +9717,26 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="4"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="7"/>
-      <c r="AJ72" s="7"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="7"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="2"/>
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
@@ -9916,26 +9789,26 @@
       <c r="CJ72" s="2"/>
       <c r="CK72" s="2"/>
       <c r="CL72" s="2"/>
-      <c r="CM72" s="2"/>
-      <c r="CN72" s="2"/>
-      <c r="CO72" s="2"/>
-      <c r="CP72" s="2"/>
-      <c r="CQ72" s="9"/>
+      <c r="CM72" s="7"/>
+      <c r="CN72" s="7"/>
+      <c r="CO72" s="7"/>
+      <c r="CP72" s="7"/>
+      <c r="CQ72" s="7"/>
       <c r="CR72" s="7"/>
       <c r="CS72" s="7"/>
       <c r="CT72" s="7"/>
       <c r="CU72" s="7"/>
       <c r="CV72" s="7"/>
       <c r="CW72" s="7"/>
-      <c r="CX72" s="7"/>
-      <c r="CY72" s="7"/>
-      <c r="CZ72" s="7"/>
-      <c r="DA72" s="7"/>
-      <c r="DB72" s="7"/>
-      <c r="DC72" s="7"/>
-      <c r="DD72" s="7"/>
-      <c r="DE72" s="7"/>
-      <c r="DF72" s="7"/>
+      <c r="CX72" s="4"/>
+      <c r="CY72" s="2"/>
+      <c r="CZ72" s="2"/>
+      <c r="DA72" s="2"/>
+      <c r="DB72" s="2"/>
+      <c r="DC72" s="2"/>
+      <c r="DD72" s="2"/>
+      <c r="DE72" s="2"/>
+      <c r="DF72" s="9"/>
       <c r="DG72" s="7"/>
       <c r="DH72" s="5"/>
       <c r="DI72" s="2"/>
@@ -9973,15 +9846,15 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="4"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="4"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
@@ -9990,10 +9863,10 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="7"/>
       <c r="AH73" s="7"/>
-      <c r="AI73" s="7"/>
-      <c r="AJ73" s="7"/>
-      <c r="AK73" s="7"/>
-      <c r="AL73" s="7"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
@@ -10046,10 +9919,10 @@
       <c r="CJ73" s="2"/>
       <c r="CK73" s="2"/>
       <c r="CL73" s="2"/>
-      <c r="CM73" s="2"/>
-      <c r="CN73" s="2"/>
-      <c r="CO73" s="2"/>
-      <c r="CP73" s="9"/>
+      <c r="CM73" s="7"/>
+      <c r="CN73" s="7"/>
+      <c r="CO73" s="7"/>
+      <c r="CP73" s="7"/>
       <c r="CQ73" s="7"/>
       <c r="CR73" s="7"/>
       <c r="CS73" s="7"/>
@@ -10058,15 +9931,15 @@
       <c r="CV73" s="7"/>
       <c r="CW73" s="7"/>
       <c r="CX73" s="7"/>
-      <c r="CY73" s="7"/>
-      <c r="CZ73" s="7"/>
-      <c r="DA73" s="7"/>
-      <c r="DB73" s="7"/>
-      <c r="DC73" s="7"/>
-      <c r="DD73" s="7"/>
-      <c r="DE73" s="7"/>
-      <c r="DF73" s="7"/>
-      <c r="DG73" s="7"/>
+      <c r="CY73" s="4"/>
+      <c r="CZ73" s="2"/>
+      <c r="DA73" s="2"/>
+      <c r="DB73" s="2"/>
+      <c r="DC73" s="2"/>
+      <c r="DD73" s="2"/>
+      <c r="DE73" s="2"/>
+      <c r="DF73" s="2"/>
+      <c r="DG73" s="9"/>
       <c r="DH73" s="4"/>
       <c r="DI73" s="2"/>
       <c r="DJ73" s="2"/>
@@ -10102,15 +9975,15 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="4"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -10121,9 +9994,9 @@
       <c r="AG74" s="7"/>
       <c r="AH74" s="7"/>
       <c r="AI74" s="7"/>
-      <c r="AJ74" s="7"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="2"/>
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
@@ -10176,9 +10049,9 @@
       <c r="CJ74" s="2"/>
       <c r="CK74" s="2"/>
       <c r="CL74" s="2"/>
-      <c r="CM74" s="2"/>
-      <c r="CN74" s="2"/>
-      <c r="CO74" s="9"/>
+      <c r="CM74" s="7"/>
+      <c r="CN74" s="7"/>
+      <c r="CO74" s="7"/>
       <c r="CP74" s="7"/>
       <c r="CQ74" s="7"/>
       <c r="CR74" s="7"/>
@@ -10189,15 +10062,15 @@
       <c r="CW74" s="7"/>
       <c r="CX74" s="7"/>
       <c r="CY74" s="7"/>
-      <c r="CZ74" s="7"/>
-      <c r="DA74" s="7"/>
-      <c r="DB74" s="7"/>
-      <c r="DC74" s="7"/>
-      <c r="DD74" s="7"/>
-      <c r="DE74" s="7"/>
-      <c r="DF74" s="7"/>
-      <c r="DG74" s="7"/>
-      <c r="DH74" s="8"/>
+      <c r="CZ74" s="4"/>
+      <c r="DA74" s="2"/>
+      <c r="DB74" s="2"/>
+      <c r="DC74" s="2"/>
+      <c r="DD74" s="2"/>
+      <c r="DE74" s="2"/>
+      <c r="DF74" s="2"/>
+      <c r="DG74" s="2"/>
+      <c r="DH74" s="2"/>
       <c r="DI74" s="2"/>
       <c r="DJ74" s="2"/>
       <c r="DK74" s="2"/>
@@ -10233,13 +10106,13 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="4"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
@@ -10252,8 +10125,8 @@
       <c r="AH75" s="7"/>
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="2"/>
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
@@ -10306,8 +10179,8 @@
       <c r="CJ75" s="2"/>
       <c r="CK75" s="2"/>
       <c r="CL75" s="2"/>
-      <c r="CM75" s="2"/>
-      <c r="CN75" s="9"/>
+      <c r="CM75" s="7"/>
+      <c r="CN75" s="7"/>
       <c r="CO75" s="7"/>
       <c r="CP75" s="7"/>
       <c r="CQ75" s="7"/>
@@ -10320,13 +10193,13 @@
       <c r="CX75" s="7"/>
       <c r="CY75" s="7"/>
       <c r="CZ75" s="7"/>
-      <c r="DA75" s="7"/>
-      <c r="DB75" s="7"/>
-      <c r="DC75" s="7"/>
-      <c r="DD75" s="7"/>
-      <c r="DE75" s="7"/>
-      <c r="DF75" s="7"/>
-      <c r="DG75" s="7"/>
+      <c r="DA75" s="4"/>
+      <c r="DB75" s="2"/>
+      <c r="DC75" s="2"/>
+      <c r="DD75" s="2"/>
+      <c r="DE75" s="2"/>
+      <c r="DF75" s="2"/>
+      <c r="DG75" s="2"/>
       <c r="DH75" s="2"/>
       <c r="DI75" s="2"/>
       <c r="DJ75" s="2"/>
@@ -10363,12 +10236,12 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="4"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -10383,7 +10256,7 @@
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
-      <c r="AL76" s="7"/>
+      <c r="AL76" s="9"/>
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
@@ -10436,7 +10309,7 @@
       <c r="CJ76" s="2"/>
       <c r="CK76" s="2"/>
       <c r="CL76" s="2"/>
-      <c r="CM76" s="9"/>
+      <c r="CM76" s="7"/>
       <c r="CN76" s="7"/>
       <c r="CO76" s="7"/>
       <c r="CP76" s="7"/>
@@ -10451,12 +10324,12 @@
       <c r="CY76" s="7"/>
       <c r="CZ76" s="7"/>
       <c r="DA76" s="7"/>
-      <c r="DB76" s="7"/>
-      <c r="DC76" s="7"/>
-      <c r="DD76" s="7"/>
-      <c r="DE76" s="7"/>
-      <c r="DF76" s="7"/>
-      <c r="DG76" s="6"/>
+      <c r="DB76" s="4"/>
+      <c r="DC76" s="2"/>
+      <c r="DD76" s="2"/>
+      <c r="DE76" s="2"/>
+      <c r="DF76" s="2"/>
+      <c r="DG76" s="2"/>
       <c r="DH76" s="2"/>
       <c r="DI76" s="2"/>
       <c r="DJ76" s="2"/>
@@ -10493,11 +10366,11 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="4"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
@@ -10514,7 +10387,7 @@
       <c r="AJ77" s="7"/>
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
-      <c r="AM77" s="2"/>
+      <c r="AM77" s="9"/>
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
       <c r="AP77" s="2"/>
@@ -10565,7 +10438,7 @@
       <c r="CI77" s="2"/>
       <c r="CJ77" s="2"/>
       <c r="CK77" s="2"/>
-      <c r="CL77" s="9"/>
+      <c r="CL77" s="2"/>
       <c r="CM77" s="7"/>
       <c r="CN77" s="7"/>
       <c r="CO77" s="7"/>
@@ -10582,11 +10455,11 @@
       <c r="CZ77" s="7"/>
       <c r="DA77" s="7"/>
       <c r="DB77" s="7"/>
-      <c r="DC77" s="7"/>
-      <c r="DD77" s="7"/>
-      <c r="DE77" s="7"/>
-      <c r="DF77" s="7"/>
-      <c r="DG77" s="5"/>
+      <c r="DC77" s="4"/>
+      <c r="DD77" s="2"/>
+      <c r="DE77" s="2"/>
+      <c r="DF77" s="2"/>
+      <c r="DG77" s="2"/>
       <c r="DH77" s="2"/>
       <c r="DI77" s="2"/>
       <c r="DJ77" s="2"/>
@@ -10623,10 +10496,10 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="4"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
@@ -10644,8 +10517,8 @@
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
-      <c r="AM78" s="2"/>
-      <c r="AN78" s="2"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="9"/>
       <c r="AO78" s="2"/>
       <c r="AP78" s="2"/>
       <c r="AQ78" s="2"/>
@@ -10694,8 +10567,8 @@
       <c r="CH78" s="2"/>
       <c r="CI78" s="2"/>
       <c r="CJ78" s="2"/>
-      <c r="CK78" s="9"/>
-      <c r="CL78" s="7"/>
+      <c r="CK78" s="2"/>
+      <c r="CL78" s="2"/>
       <c r="CM78" s="7"/>
       <c r="CN78" s="7"/>
       <c r="CO78" s="7"/>
@@ -10713,10 +10586,10 @@
       <c r="DA78" s="7"/>
       <c r="DB78" s="7"/>
       <c r="DC78" s="7"/>
-      <c r="DD78" s="7"/>
-      <c r="DE78" s="7"/>
-      <c r="DF78" s="7"/>
-      <c r="DG78" s="10"/>
+      <c r="DD78" s="4"/>
+      <c r="DE78" s="2"/>
+      <c r="DF78" s="2"/>
+      <c r="DG78" s="2"/>
       <c r="DH78" s="2"/>
       <c r="DI78" s="2"/>
       <c r="DJ78" s="2"/>
@@ -10754,8 +10627,8 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="4"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
@@ -10774,9 +10647,9 @@
       <c r="AJ79" s="7"/>
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
-      <c r="AM79" s="2"/>
-      <c r="AN79" s="2"/>
-      <c r="AO79" s="2"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="9"/>
       <c r="AP79" s="2"/>
       <c r="AQ79" s="2"/>
       <c r="AR79" s="2"/>
@@ -10823,9 +10696,9 @@
       <c r="CG79" s="2"/>
       <c r="CH79" s="2"/>
       <c r="CI79" s="2"/>
-      <c r="CJ79" s="9"/>
-      <c r="CK79" s="7"/>
-      <c r="CL79" s="7"/>
+      <c r="CJ79" s="2"/>
+      <c r="CK79" s="2"/>
+      <c r="CL79" s="2"/>
       <c r="CM79" s="7"/>
       <c r="CN79" s="7"/>
       <c r="CO79" s="7"/>
@@ -10844,8 +10717,8 @@
       <c r="DB79" s="7"/>
       <c r="DC79" s="7"/>
       <c r="DD79" s="7"/>
-      <c r="DE79" s="7"/>
-      <c r="DF79" s="12"/>
+      <c r="DE79" s="4"/>
+      <c r="DF79" s="2"/>
       <c r="DG79" s="2"/>
       <c r="DH79" s="2"/>
       <c r="DI79" s="2"/>
@@ -10884,7 +10757,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
-      <c r="S80" s="11"/>
+      <c r="S80" s="9"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
@@ -10904,10 +10777,10 @@
       <c r="AJ80" s="7"/>
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
-      <c r="AM80" s="2"/>
-      <c r="AN80" s="2"/>
-      <c r="AO80" s="2"/>
-      <c r="AP80" s="2"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="9"/>
       <c r="AQ80" s="2"/>
       <c r="AR80" s="2"/>
       <c r="AS80" s="2"/>
@@ -10952,10 +10825,10 @@
       <c r="CF80" s="2"/>
       <c r="CG80" s="2"/>
       <c r="CH80" s="2"/>
-      <c r="CI80" s="9"/>
-      <c r="CJ80" s="7"/>
-      <c r="CK80" s="7"/>
-      <c r="CL80" s="7"/>
+      <c r="CI80" s="2"/>
+      <c r="CJ80" s="2"/>
+      <c r="CK80" s="2"/>
+      <c r="CL80" s="2"/>
       <c r="CM80" s="7"/>
       <c r="CN80" s="7"/>
       <c r="CO80" s="7"/>
@@ -10975,7 +10848,7 @@
       <c r="DC80" s="7"/>
       <c r="DD80" s="7"/>
       <c r="DE80" s="7"/>
-      <c r="DF80" s="9"/>
+      <c r="DF80" s="11"/>
       <c r="DG80" s="2"/>
       <c r="DH80" s="2"/>
       <c r="DI80" s="2"/>
@@ -11014,7 +10887,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="8"/>
+      <c r="S81" s="3"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -11034,11 +10907,11 @@
       <c r="AJ81" s="7"/>
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
-      <c r="AM81" s="2"/>
-      <c r="AN81" s="2"/>
-      <c r="AO81" s="2"/>
-      <c r="AP81" s="2"/>
-      <c r="AQ81" s="2"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="9"/>
       <c r="AR81" s="2"/>
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
@@ -11081,11 +10954,11 @@
       <c r="CE81" s="2"/>
       <c r="CF81" s="2"/>
       <c r="CG81" s="2"/>
-      <c r="CH81" s="9"/>
-      <c r="CI81" s="7"/>
-      <c r="CJ81" s="7"/>
-      <c r="CK81" s="7"/>
-      <c r="CL81" s="7"/>
+      <c r="CH81" s="2"/>
+      <c r="CI81" s="2"/>
+      <c r="CJ81" s="2"/>
+      <c r="CK81" s="2"/>
+      <c r="CL81" s="2"/>
       <c r="CM81" s="7"/>
       <c r="CN81" s="7"/>
       <c r="CO81" s="7"/>
@@ -11105,7 +10978,7 @@
       <c r="DC81" s="7"/>
       <c r="DD81" s="7"/>
       <c r="DE81" s="7"/>
-      <c r="DF81" s="8"/>
+      <c r="DF81" s="3"/>
       <c r="DG81" s="2"/>
       <c r="DH81" s="2"/>
       <c r="DI81" s="2"/>
@@ -11145,7 +11018,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
-      <c r="T82" s="15"/>
+      <c r="T82" s="14"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
@@ -11164,12 +11037,12 @@
       <c r="AJ82" s="7"/>
       <c r="AK82" s="7"/>
       <c r="AL82" s="7"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="9"/>
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
@@ -11210,12 +11083,12 @@
       <c r="CD82" s="2"/>
       <c r="CE82" s="2"/>
       <c r="CF82" s="2"/>
-      <c r="CG82" s="9"/>
-      <c r="CH82" s="7"/>
-      <c r="CI82" s="7"/>
-      <c r="CJ82" s="7"/>
-      <c r="CK82" s="7"/>
-      <c r="CL82" s="7"/>
+      <c r="CG82" s="2"/>
+      <c r="CH82" s="2"/>
+      <c r="CI82" s="2"/>
+      <c r="CJ82" s="2"/>
+      <c r="CK82" s="2"/>
+      <c r="CL82" s="2"/>
       <c r="CM82" s="7"/>
       <c r="CN82" s="7"/>
       <c r="CO82" s="7"/>
@@ -11234,7 +11107,7 @@
       <c r="DB82" s="7"/>
       <c r="DC82" s="7"/>
       <c r="DD82" s="7"/>
-      <c r="DE82" s="15"/>
+      <c r="DE82" s="14"/>
       <c r="DF82" s="2"/>
       <c r="DG82" s="2"/>
       <c r="DH82" s="2"/>
@@ -11275,7 +11148,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
-      <c r="T83" s="14"/>
+      <c r="T83" s="13"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
@@ -11294,12 +11167,12 @@
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
-      <c r="AM83" s="2"/>
-      <c r="AN83" s="2"/>
-      <c r="AO83" s="2"/>
-      <c r="AP83" s="2"/>
-      <c r="AQ83" s="2"/>
-      <c r="AR83" s="2"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
       <c r="AS83" s="9"/>
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
@@ -11340,12 +11213,12 @@
       <c r="CD83" s="2"/>
       <c r="CE83" s="2"/>
       <c r="CF83" s="9"/>
-      <c r="CG83" s="7"/>
-      <c r="CH83" s="7"/>
-      <c r="CI83" s="7"/>
-      <c r="CJ83" s="7"/>
-      <c r="CK83" s="7"/>
-      <c r="CL83" s="7"/>
+      <c r="CG83" s="2"/>
+      <c r="CH83" s="2"/>
+      <c r="CI83" s="2"/>
+      <c r="CJ83" s="2"/>
+      <c r="CK83" s="2"/>
+      <c r="CL83" s="2"/>
       <c r="CM83" s="7"/>
       <c r="CN83" s="7"/>
       <c r="CO83" s="7"/>
@@ -11364,7 +11237,7 @@
       <c r="DB83" s="7"/>
       <c r="DC83" s="7"/>
       <c r="DD83" s="7"/>
-      <c r="DE83" s="14"/>
+      <c r="DE83" s="13"/>
       <c r="DF83" s="2"/>
       <c r="DG83" s="2"/>
       <c r="DH83" s="2"/>
@@ -11405,8 +11278,8 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="10"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
@@ -11424,12 +11297,12 @@
       <c r="AJ84" s="7"/>
       <c r="AK84" s="7"/>
       <c r="AL84" s="7"/>
-      <c r="AM84" s="2"/>
-      <c r="AN84" s="2"/>
-      <c r="AO84" s="2"/>
-      <c r="AP84" s="2"/>
-      <c r="AQ84" s="2"/>
-      <c r="AR84" s="2"/>
+      <c r="AM84" s="7"/>
+      <c r="AN84" s="7"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="7"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
       <c r="AS84" s="7"/>
       <c r="AT84" s="9"/>
       <c r="AU84" s="2"/>
@@ -11470,12 +11343,12 @@
       <c r="CD84" s="2"/>
       <c r="CE84" s="9"/>
       <c r="CF84" s="7"/>
-      <c r="CG84" s="7"/>
-      <c r="CH84" s="7"/>
-      <c r="CI84" s="7"/>
-      <c r="CJ84" s="7"/>
-      <c r="CK84" s="7"/>
-      <c r="CL84" s="7"/>
+      <c r="CG84" s="2"/>
+      <c r="CH84" s="2"/>
+      <c r="CI84" s="2"/>
+      <c r="CJ84" s="2"/>
+      <c r="CK84" s="2"/>
+      <c r="CL84" s="2"/>
       <c r="CM84" s="7"/>
       <c r="CN84" s="7"/>
       <c r="CO84" s="7"/>
@@ -11493,8 +11366,8 @@
       <c r="DA84" s="7"/>
       <c r="DB84" s="7"/>
       <c r="DC84" s="7"/>
-      <c r="DD84" s="12"/>
-      <c r="DE84" s="13"/>
+      <c r="DD84" s="10"/>
+      <c r="DE84" s="12"/>
       <c r="DF84" s="2"/>
       <c r="DG84" s="2"/>
       <c r="DH84" s="2"/>
@@ -11536,33 +11409,33 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="7"/>
-      <c r="AD85" s="7"/>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
-      <c r="AG85" s="7"/>
-      <c r="AH85" s="7"/>
-      <c r="AI85" s="7"/>
-      <c r="AJ85" s="7"/>
-      <c r="AK85" s="7"/>
-      <c r="AL85" s="7"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="2"/>
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
       <c r="AP85" s="2"/>
       <c r="AQ85" s="2"/>
       <c r="AR85" s="2"/>
-      <c r="AS85" s="7"/>
-      <c r="AT85" s="7"/>
-      <c r="AU85" s="9"/>
+      <c r="AS85" s="2"/>
+      <c r="AT85" s="2"/>
+      <c r="AU85" s="2"/>
       <c r="AV85" s="2"/>
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
@@ -11597,33 +11470,33 @@
       <c r="CA85" s="2"/>
       <c r="CB85" s="2"/>
       <c r="CC85" s="2"/>
-      <c r="CD85" s="2"/>
-      <c r="CE85" s="2"/>
-      <c r="CF85" s="2"/>
+      <c r="CD85" s="9"/>
+      <c r="CE85" s="7"/>
+      <c r="CF85" s="7"/>
       <c r="CG85" s="2"/>
       <c r="CH85" s="2"/>
       <c r="CI85" s="2"/>
       <c r="CJ85" s="2"/>
       <c r="CK85" s="2"/>
       <c r="CL85" s="2"/>
-      <c r="CM85" s="2"/>
-      <c r="CN85" s="2"/>
-      <c r="CO85" s="2"/>
-      <c r="CP85" s="2"/>
-      <c r="CQ85" s="2"/>
-      <c r="CR85" s="2"/>
-      <c r="CS85" s="2"/>
-      <c r="CT85" s="2"/>
-      <c r="CU85" s="2"/>
-      <c r="CV85" s="2"/>
-      <c r="CW85" s="2"/>
-      <c r="CX85" s="2"/>
-      <c r="CY85" s="2"/>
-      <c r="CZ85" s="2"/>
-      <c r="DA85" s="2"/>
-      <c r="DB85" s="2"/>
-      <c r="DC85" s="2"/>
-      <c r="DD85" s="2"/>
+      <c r="CM85" s="7"/>
+      <c r="CN85" s="7"/>
+      <c r="CO85" s="7"/>
+      <c r="CP85" s="7"/>
+      <c r="CQ85" s="7"/>
+      <c r="CR85" s="7"/>
+      <c r="CS85" s="7"/>
+      <c r="CT85" s="7"/>
+      <c r="CU85" s="7"/>
+      <c r="CV85" s="7"/>
+      <c r="CW85" s="7"/>
+      <c r="CX85" s="7"/>
+      <c r="CY85" s="7"/>
+      <c r="CZ85" s="7"/>
+      <c r="DA85" s="7"/>
+      <c r="DB85" s="7"/>
+      <c r="DC85" s="7"/>
+      <c r="DD85" s="9"/>
       <c r="DE85" s="2"/>
       <c r="DF85" s="2"/>
       <c r="DG85" s="2"/>
@@ -11666,34 +11539,34 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7"/>
-      <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-      <c r="AH86" s="7"/>
-      <c r="AI86" s="7"/>
-      <c r="AJ86" s="7"/>
-      <c r="AK86" s="7"/>
-      <c r="AL86" s="7"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
       <c r="AP86" s="2"/>
       <c r="AQ86" s="2"/>
       <c r="AR86" s="2"/>
-      <c r="AS86" s="7"/>
-      <c r="AT86" s="7"/>
-      <c r="AU86" s="7"/>
-      <c r="AV86" s="9"/>
+      <c r="AS86" s="2"/>
+      <c r="AT86" s="2"/>
+      <c r="AU86" s="2"/>
+      <c r="AV86" s="2"/>
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
       <c r="AY86" s="2"/>
@@ -11726,34 +11599,34 @@
       <c r="BZ86" s="2"/>
       <c r="CA86" s="2"/>
       <c r="CB86" s="2"/>
-      <c r="CC86" s="2"/>
-      <c r="CD86" s="2"/>
-      <c r="CE86" s="2"/>
-      <c r="CF86" s="2"/>
+      <c r="CC86" s="9"/>
+      <c r="CD86" s="7"/>
+      <c r="CE86" s="7"/>
+      <c r="CF86" s="7"/>
       <c r="CG86" s="2"/>
       <c r="CH86" s="2"/>
       <c r="CI86" s="2"/>
       <c r="CJ86" s="2"/>
       <c r="CK86" s="2"/>
       <c r="CL86" s="2"/>
-      <c r="CM86" s="2"/>
-      <c r="CN86" s="2"/>
-      <c r="CO86" s="2"/>
-      <c r="CP86" s="2"/>
-      <c r="CQ86" s="2"/>
-      <c r="CR86" s="2"/>
-      <c r="CS86" s="2"/>
-      <c r="CT86" s="2"/>
-      <c r="CU86" s="2"/>
-      <c r="CV86" s="2"/>
-      <c r="CW86" s="2"/>
-      <c r="CX86" s="2"/>
-      <c r="CY86" s="2"/>
-      <c r="CZ86" s="2"/>
-      <c r="DA86" s="2"/>
-      <c r="DB86" s="2"/>
-      <c r="DC86" s="2"/>
-      <c r="DD86" s="2"/>
+      <c r="CM86" s="7"/>
+      <c r="CN86" s="7"/>
+      <c r="CO86" s="7"/>
+      <c r="CP86" s="7"/>
+      <c r="CQ86" s="7"/>
+      <c r="CR86" s="7"/>
+      <c r="CS86" s="7"/>
+      <c r="CT86" s="7"/>
+      <c r="CU86" s="7"/>
+      <c r="CV86" s="7"/>
+      <c r="CW86" s="7"/>
+      <c r="CX86" s="7"/>
+      <c r="CY86" s="7"/>
+      <c r="CZ86" s="7"/>
+      <c r="DA86" s="7"/>
+      <c r="DB86" s="7"/>
+      <c r="DC86" s="7"/>
+      <c r="DD86" s="15"/>
       <c r="DE86" s="2"/>
       <c r="DF86" s="2"/>
       <c r="DG86" s="2"/>
@@ -11797,34 +11670,34 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="7"/>
-      <c r="AD87" s="7"/>
-      <c r="AE87" s="7"/>
-      <c r="AF87" s="7"/>
-      <c r="AG87" s="7"/>
-      <c r="AH87" s="7"/>
-      <c r="AI87" s="7"/>
-      <c r="AJ87" s="7"/>
-      <c r="AK87" s="7"/>
-      <c r="AL87" s="7"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
       <c r="AP87" s="2"/>
       <c r="AQ87" s="2"/>
       <c r="AR87" s="2"/>
-      <c r="AS87" s="7"/>
-      <c r="AT87" s="7"/>
-      <c r="AU87" s="7"/>
-      <c r="AV87" s="7"/>
-      <c r="AW87" s="9"/>
+      <c r="AS87" s="2"/>
+      <c r="AT87" s="2"/>
+      <c r="AU87" s="2"/>
+      <c r="AV87" s="2"/>
+      <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
       <c r="AY87" s="2"/>
       <c r="AZ87" s="2"/>
@@ -11855,34 +11728,34 @@
       <c r="BY87" s="2"/>
       <c r="BZ87" s="2"/>
       <c r="CA87" s="2"/>
-      <c r="CB87" s="2"/>
-      <c r="CC87" s="2"/>
-      <c r="CD87" s="2"/>
-      <c r="CE87" s="2"/>
-      <c r="CF87" s="2"/>
+      <c r="CB87" s="9"/>
+      <c r="CC87" s="7"/>
+      <c r="CD87" s="7"/>
+      <c r="CE87" s="7"/>
+      <c r="CF87" s="7"/>
       <c r="CG87" s="2"/>
       <c r="CH87" s="2"/>
       <c r="CI87" s="2"/>
       <c r="CJ87" s="2"/>
       <c r="CK87" s="2"/>
       <c r="CL87" s="2"/>
-      <c r="CM87" s="2"/>
-      <c r="CN87" s="2"/>
-      <c r="CO87" s="2"/>
-      <c r="CP87" s="2"/>
-      <c r="CQ87" s="2"/>
-      <c r="CR87" s="2"/>
-      <c r="CS87" s="2"/>
-      <c r="CT87" s="2"/>
-      <c r="CU87" s="2"/>
-      <c r="CV87" s="2"/>
-      <c r="CW87" s="2"/>
-      <c r="CX87" s="2"/>
-      <c r="CY87" s="2"/>
-      <c r="CZ87" s="2"/>
-      <c r="DA87" s="2"/>
-      <c r="DB87" s="2"/>
-      <c r="DC87" s="2"/>
+      <c r="CM87" s="7"/>
+      <c r="CN87" s="7"/>
+      <c r="CO87" s="7"/>
+      <c r="CP87" s="7"/>
+      <c r="CQ87" s="7"/>
+      <c r="CR87" s="7"/>
+      <c r="CS87" s="7"/>
+      <c r="CT87" s="7"/>
+      <c r="CU87" s="7"/>
+      <c r="CV87" s="7"/>
+      <c r="CW87" s="7"/>
+      <c r="CX87" s="7"/>
+      <c r="CY87" s="7"/>
+      <c r="CZ87" s="7"/>
+      <c r="DA87" s="7"/>
+      <c r="DB87" s="7"/>
+      <c r="DC87" s="9"/>
       <c r="DD87" s="2"/>
       <c r="DE87" s="2"/>
       <c r="DF87" s="2"/>
@@ -11927,35 +11800,35 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="7"/>
-      <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
-      <c r="AL88" s="7"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="2"/>
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
       <c r="AP88" s="2"/>
       <c r="AQ88" s="2"/>
       <c r="AR88" s="2"/>
-      <c r="AS88" s="7"/>
-      <c r="AT88" s="7"/>
-      <c r="AU88" s="7"/>
-      <c r="AV88" s="7"/>
-      <c r="AW88" s="7"/>
-      <c r="AX88" s="9"/>
+      <c r="AS88" s="2"/>
+      <c r="AT88" s="2"/>
+      <c r="AU88" s="2"/>
+      <c r="AV88" s="2"/>
+      <c r="AW88" s="2"/>
+      <c r="AX88" s="2"/>
       <c r="AY88" s="2"/>
       <c r="AZ88" s="2"/>
       <c r="BA88" s="2"/>
@@ -11984,35 +11857,35 @@
       <c r="BX88" s="2"/>
       <c r="BY88" s="2"/>
       <c r="BZ88" s="2"/>
-      <c r="CA88" s="2"/>
-      <c r="CB88" s="2"/>
-      <c r="CC88" s="2"/>
-      <c r="CD88" s="2"/>
-      <c r="CE88" s="2"/>
-      <c r="CF88" s="2"/>
+      <c r="CA88" s="9"/>
+      <c r="CB88" s="7"/>
+      <c r="CC88" s="7"/>
+      <c r="CD88" s="7"/>
+      <c r="CE88" s="7"/>
+      <c r="CF88" s="7"/>
       <c r="CG88" s="2"/>
       <c r="CH88" s="2"/>
       <c r="CI88" s="2"/>
       <c r="CJ88" s="2"/>
       <c r="CK88" s="2"/>
       <c r="CL88" s="2"/>
-      <c r="CM88" s="2"/>
-      <c r="CN88" s="2"/>
-      <c r="CO88" s="2"/>
-      <c r="CP88" s="2"/>
-      <c r="CQ88" s="2"/>
-      <c r="CR88" s="2"/>
-      <c r="CS88" s="2"/>
-      <c r="CT88" s="2"/>
-      <c r="CU88" s="2"/>
-      <c r="CV88" s="2"/>
-      <c r="CW88" s="2"/>
-      <c r="CX88" s="2"/>
-      <c r="CY88" s="2"/>
-      <c r="CZ88" s="2"/>
-      <c r="DA88" s="2"/>
-      <c r="DB88" s="2"/>
-      <c r="DC88" s="2"/>
+      <c r="CM88" s="7"/>
+      <c r="CN88" s="7"/>
+      <c r="CO88" s="7"/>
+      <c r="CP88" s="7"/>
+      <c r="CQ88" s="7"/>
+      <c r="CR88" s="7"/>
+      <c r="CS88" s="7"/>
+      <c r="CT88" s="7"/>
+      <c r="CU88" s="7"/>
+      <c r="CV88" s="7"/>
+      <c r="CW88" s="7"/>
+      <c r="CX88" s="7"/>
+      <c r="CY88" s="7"/>
+      <c r="CZ88" s="7"/>
+      <c r="DA88" s="7"/>
+      <c r="DB88" s="10"/>
+      <c r="DC88" s="12"/>
       <c r="DD88" s="2"/>
       <c r="DE88" s="2"/>
       <c r="DF88" s="2"/>
@@ -12058,35 +11931,35 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="7"/>
-      <c r="AD89" s="7"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="7"/>
-      <c r="AG89" s="7"/>
-      <c r="AH89" s="7"/>
-      <c r="AI89" s="7"/>
-      <c r="AJ89" s="7"/>
-      <c r="AK89" s="7"/>
-      <c r="AL89" s="7"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
       <c r="AP89" s="2"/>
       <c r="AQ89" s="2"/>
       <c r="AR89" s="2"/>
-      <c r="AS89" s="7"/>
-      <c r="AT89" s="7"/>
-      <c r="AU89" s="7"/>
-      <c r="AV89" s="7"/>
-      <c r="AW89" s="7"/>
-      <c r="AX89" s="7"/>
-      <c r="AY89" s="9"/>
+      <c r="AS89" s="2"/>
+      <c r="AT89" s="2"/>
+      <c r="AU89" s="2"/>
+      <c r="AV89" s="2"/>
+      <c r="AW89" s="2"/>
+      <c r="AX89" s="2"/>
+      <c r="AY89" s="2"/>
       <c r="AZ89" s="2"/>
       <c r="BA89" s="2"/>
       <c r="BB89" s="2"/>
@@ -12113,35 +11986,35 @@
       <c r="BW89" s="2"/>
       <c r="BX89" s="2"/>
       <c r="BY89" s="2"/>
-      <c r="BZ89" s="2"/>
-      <c r="CA89" s="2"/>
-      <c r="CB89" s="2"/>
-      <c r="CC89" s="2"/>
-      <c r="CD89" s="2"/>
-      <c r="CE89" s="2"/>
-      <c r="CF89" s="2"/>
+      <c r="BZ89" s="9"/>
+      <c r="CA89" s="7"/>
+      <c r="CB89" s="7"/>
+      <c r="CC89" s="7"/>
+      <c r="CD89" s="7"/>
+      <c r="CE89" s="7"/>
+      <c r="CF89" s="7"/>
       <c r="CG89" s="2"/>
       <c r="CH89" s="2"/>
       <c r="CI89" s="2"/>
       <c r="CJ89" s="2"/>
       <c r="CK89" s="2"/>
       <c r="CL89" s="2"/>
-      <c r="CM89" s="2"/>
-      <c r="CN89" s="2"/>
-      <c r="CO89" s="2"/>
-      <c r="CP89" s="2"/>
-      <c r="CQ89" s="2"/>
-      <c r="CR89" s="2"/>
-      <c r="CS89" s="2"/>
-      <c r="CT89" s="2"/>
-      <c r="CU89" s="2"/>
-      <c r="CV89" s="2"/>
-      <c r="CW89" s="2"/>
-      <c r="CX89" s="2"/>
-      <c r="CY89" s="2"/>
-      <c r="CZ89" s="2"/>
-      <c r="DA89" s="2"/>
-      <c r="DB89" s="2"/>
+      <c r="CM89" s="7"/>
+      <c r="CN89" s="7"/>
+      <c r="CO89" s="7"/>
+      <c r="CP89" s="7"/>
+      <c r="CQ89" s="7"/>
+      <c r="CR89" s="7"/>
+      <c r="CS89" s="7"/>
+      <c r="CT89" s="7"/>
+      <c r="CU89" s="7"/>
+      <c r="CV89" s="7"/>
+      <c r="CW89" s="7"/>
+      <c r="CX89" s="7"/>
+      <c r="CY89" s="7"/>
+      <c r="CZ89" s="7"/>
+      <c r="DA89" s="7"/>
+      <c r="DB89" s="5"/>
       <c r="DC89" s="2"/>
       <c r="DD89" s="2"/>
       <c r="DE89" s="2"/>
@@ -12189,35 +12062,35 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="7"/>
-      <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
-      <c r="AG90" s="7"/>
-      <c r="AH90" s="7"/>
-      <c r="AI90" s="7"/>
-      <c r="AJ90" s="7"/>
-      <c r="AK90" s="7"/>
-      <c r="AL90" s="7"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="2"/>
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
       <c r="AP90" s="2"/>
       <c r="AQ90" s="2"/>
       <c r="AR90" s="2"/>
-      <c r="AS90" s="7"/>
-      <c r="AT90" s="7"/>
-      <c r="AU90" s="7"/>
-      <c r="AV90" s="7"/>
-      <c r="AW90" s="7"/>
-      <c r="AX90" s="7"/>
-      <c r="AY90" s="7"/>
-      <c r="AZ90" s="9"/>
+      <c r="AS90" s="2"/>
+      <c r="AT90" s="2"/>
+      <c r="AU90" s="2"/>
+      <c r="AV90" s="2"/>
+      <c r="AW90" s="2"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="2"/>
+      <c r="AZ90" s="2"/>
       <c r="BA90" s="2"/>
       <c r="BB90" s="2"/>
       <c r="BC90" s="2"/>
@@ -12242,35 +12115,35 @@
       <c r="BV90" s="2"/>
       <c r="BW90" s="2"/>
       <c r="BX90" s="2"/>
-      <c r="BY90" s="2"/>
-      <c r="BZ90" s="2"/>
-      <c r="CA90" s="2"/>
-      <c r="CB90" s="2"/>
-      <c r="CC90" s="2"/>
-      <c r="CD90" s="2"/>
-      <c r="CE90" s="2"/>
-      <c r="CF90" s="2"/>
+      <c r="BY90" s="9"/>
+      <c r="BZ90" s="7"/>
+      <c r="CA90" s="7"/>
+      <c r="CB90" s="7"/>
+      <c r="CC90" s="7"/>
+      <c r="CD90" s="7"/>
+      <c r="CE90" s="7"/>
+      <c r="CF90" s="7"/>
       <c r="CG90" s="2"/>
       <c r="CH90" s="2"/>
       <c r="CI90" s="2"/>
       <c r="CJ90" s="2"/>
       <c r="CK90" s="2"/>
       <c r="CL90" s="2"/>
-      <c r="CM90" s="2"/>
-      <c r="CN90" s="2"/>
-      <c r="CO90" s="2"/>
-      <c r="CP90" s="2"/>
-      <c r="CQ90" s="2"/>
-      <c r="CR90" s="2"/>
-      <c r="CS90" s="2"/>
-      <c r="CT90" s="2"/>
-      <c r="CU90" s="2"/>
-      <c r="CV90" s="2"/>
-      <c r="CW90" s="2"/>
-      <c r="CX90" s="2"/>
-      <c r="CY90" s="2"/>
-      <c r="CZ90" s="2"/>
-      <c r="DA90" s="2"/>
+      <c r="CM90" s="7"/>
+      <c r="CN90" s="7"/>
+      <c r="CO90" s="7"/>
+      <c r="CP90" s="7"/>
+      <c r="CQ90" s="7"/>
+      <c r="CR90" s="7"/>
+      <c r="CS90" s="7"/>
+      <c r="CT90" s="7"/>
+      <c r="CU90" s="7"/>
+      <c r="CV90" s="7"/>
+      <c r="CW90" s="7"/>
+      <c r="CX90" s="7"/>
+      <c r="CY90" s="7"/>
+      <c r="CZ90" s="7"/>
+      <c r="DA90" s="16"/>
       <c r="DB90" s="2"/>
       <c r="DC90" s="2"/>
       <c r="DD90" s="2"/>
@@ -12319,7 +12192,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
-      <c r="X91" s="8"/>
+      <c r="X91" s="3"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
@@ -12334,12 +12207,12 @@
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
       <c r="AL91" s="7"/>
-      <c r="AM91" s="2"/>
-      <c r="AN91" s="2"/>
-      <c r="AO91" s="2"/>
-      <c r="AP91" s="2"/>
-      <c r="AQ91" s="2"/>
-      <c r="AR91" s="2"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
       <c r="AS91" s="7"/>
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
@@ -12348,30 +12221,30 @@
       <c r="AX91" s="7"/>
       <c r="AY91" s="7"/>
       <c r="AZ91" s="7"/>
-      <c r="BA91" s="9"/>
-      <c r="BB91" s="2"/>
-      <c r="BC91" s="2"/>
-      <c r="BD91" s="2"/>
-      <c r="BE91" s="2"/>
-      <c r="BF91" s="2"/>
-      <c r="BG91" s="2"/>
-      <c r="BH91" s="2"/>
-      <c r="BI91" s="4"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="7"/>
+      <c r="BI91" s="7"/>
       <c r="BJ91" s="7"/>
       <c r="BK91" s="7"/>
       <c r="BL91" s="7"/>
       <c r="BM91" s="7"/>
       <c r="BN91" s="7"/>
       <c r="BO91" s="7"/>
-      <c r="BP91" s="7"/>
-      <c r="BQ91" s="7"/>
-      <c r="BR91" s="7"/>
-      <c r="BS91" s="7"/>
-      <c r="BT91" s="7"/>
-      <c r="BU91" s="7"/>
-      <c r="BV91" s="7"/>
-      <c r="BW91" s="7"/>
-      <c r="BX91" s="7"/>
+      <c r="BP91" s="4"/>
+      <c r="BQ91" s="2"/>
+      <c r="BR91" s="2"/>
+      <c r="BS91" s="2"/>
+      <c r="BT91" s="2"/>
+      <c r="BU91" s="2"/>
+      <c r="BV91" s="2"/>
+      <c r="BW91" s="2"/>
+      <c r="BX91" s="9"/>
       <c r="BY91" s="7"/>
       <c r="BZ91" s="7"/>
       <c r="CA91" s="7"/>
@@ -12380,12 +12253,12 @@
       <c r="CD91" s="7"/>
       <c r="CE91" s="7"/>
       <c r="CF91" s="7"/>
-      <c r="CG91" s="7"/>
-      <c r="CH91" s="7"/>
-      <c r="CI91" s="7"/>
-      <c r="CJ91" s="7"/>
-      <c r="CK91" s="7"/>
-      <c r="CL91" s="7"/>
+      <c r="CG91" s="2"/>
+      <c r="CH91" s="2"/>
+      <c r="CI91" s="2"/>
+      <c r="CJ91" s="2"/>
+      <c r="CK91" s="2"/>
+      <c r="CL91" s="2"/>
       <c r="CM91" s="7"/>
       <c r="CN91" s="7"/>
       <c r="CO91" s="7"/>
@@ -12400,7 +12273,7 @@
       <c r="CX91" s="7"/>
       <c r="CY91" s="7"/>
       <c r="CZ91" s="7"/>
-      <c r="DA91" s="8"/>
+      <c r="DA91" s="3"/>
       <c r="DB91" s="2"/>
       <c r="DC91" s="2"/>
       <c r="DD91" s="2"/>
@@ -12450,7 +12323,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
-      <c r="Y92" s="16"/>
+      <c r="Y92" s="17"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
       <c r="AB92" s="7"/>
@@ -12464,12 +12337,12 @@
       <c r="AJ92" s="7"/>
       <c r="AK92" s="7"/>
       <c r="AL92" s="7"/>
-      <c r="AM92" s="2"/>
-      <c r="AN92" s="2"/>
-      <c r="AO92" s="2"/>
-      <c r="AP92" s="2"/>
-      <c r="AQ92" s="2"/>
-      <c r="AR92" s="2"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
       <c r="AS92" s="7"/>
       <c r="AT92" s="7"/>
       <c r="AU92" s="7"/>
@@ -12479,28 +12352,28 @@
       <c r="AY92" s="7"/>
       <c r="AZ92" s="7"/>
       <c r="BA92" s="7"/>
-      <c r="BB92" s="9"/>
-      <c r="BC92" s="2"/>
-      <c r="BD92" s="2"/>
-      <c r="BE92" s="2"/>
-      <c r="BF92" s="2"/>
-      <c r="BG92" s="2"/>
-      <c r="BH92" s="2"/>
-      <c r="BI92" s="2"/>
-      <c r="BJ92" s="4"/>
+      <c r="BB92" s="7"/>
+      <c r="BC92" s="7"/>
+      <c r="BD92" s="7"/>
+      <c r="BE92" s="7"/>
+      <c r="BF92" s="7"/>
+      <c r="BG92" s="7"/>
+      <c r="BH92" s="7"/>
+      <c r="BI92" s="7"/>
+      <c r="BJ92" s="7"/>
       <c r="BK92" s="7"/>
       <c r="BL92" s="7"/>
       <c r="BM92" s="7"/>
       <c r="BN92" s="7"/>
-      <c r="BO92" s="7"/>
-      <c r="BP92" s="7"/>
-      <c r="BQ92" s="7"/>
-      <c r="BR92" s="7"/>
-      <c r="BS92" s="7"/>
-      <c r="BT92" s="7"/>
-      <c r="BU92" s="7"/>
-      <c r="BV92" s="7"/>
-      <c r="BW92" s="7"/>
+      <c r="BO92" s="4"/>
+      <c r="BP92" s="2"/>
+      <c r="BQ92" s="2"/>
+      <c r="BR92" s="2"/>
+      <c r="BS92" s="2"/>
+      <c r="BT92" s="2"/>
+      <c r="BU92" s="2"/>
+      <c r="BV92" s="2"/>
+      <c r="BW92" s="9"/>
       <c r="BX92" s="7"/>
       <c r="BY92" s="7"/>
       <c r="BZ92" s="7"/>
@@ -12510,12 +12383,12 @@
       <c r="CD92" s="7"/>
       <c r="CE92" s="7"/>
       <c r="CF92" s="7"/>
-      <c r="CG92" s="7"/>
-      <c r="CH92" s="7"/>
-      <c r="CI92" s="7"/>
-      <c r="CJ92" s="7"/>
-      <c r="CK92" s="7"/>
-      <c r="CL92" s="7"/>
+      <c r="CG92" s="2"/>
+      <c r="CH92" s="2"/>
+      <c r="CI92" s="2"/>
+      <c r="CJ92" s="2"/>
+      <c r="CK92" s="2"/>
+      <c r="CL92" s="2"/>
       <c r="CM92" s="7"/>
       <c r="CN92" s="7"/>
       <c r="CO92" s="7"/>
@@ -12529,7 +12402,7 @@
       <c r="CW92" s="7"/>
       <c r="CX92" s="7"/>
       <c r="CY92" s="7"/>
-      <c r="CZ92" s="16"/>
+      <c r="CZ92" s="17"/>
       <c r="DA92" s="2"/>
       <c r="DB92" s="2"/>
       <c r="DC92" s="2"/>
@@ -12581,7 +12454,7 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
-      <c r="Z93" s="17"/>
+      <c r="Z93" s="16"/>
       <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
       <c r="AC93" s="7"/>
@@ -12594,12 +12467,12 @@
       <c r="AJ93" s="7"/>
       <c r="AK93" s="7"/>
       <c r="AL93" s="7"/>
-      <c r="AM93" s="2"/>
-      <c r="AN93" s="2"/>
-      <c r="AO93" s="2"/>
-      <c r="AP93" s="2"/>
-      <c r="AQ93" s="2"/>
-      <c r="AR93" s="2"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
       <c r="AS93" s="7"/>
       <c r="AT93" s="7"/>
       <c r="AU93" s="7"/>
@@ -12610,26 +12483,26 @@
       <c r="AZ93" s="7"/>
       <c r="BA93" s="7"/>
       <c r="BB93" s="7"/>
-      <c r="BC93" s="9"/>
-      <c r="BD93" s="2"/>
-      <c r="BE93" s="2"/>
-      <c r="BF93" s="2"/>
-      <c r="BG93" s="2"/>
-      <c r="BH93" s="2"/>
-      <c r="BI93" s="2"/>
-      <c r="BJ93" s="2"/>
-      <c r="BK93" s="4"/>
+      <c r="BC93" s="7"/>
+      <c r="BD93" s="7"/>
+      <c r="BE93" s="7"/>
+      <c r="BF93" s="7"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="7"/>
+      <c r="BI93" s="7"/>
+      <c r="BJ93" s="7"/>
+      <c r="BK93" s="7"/>
       <c r="BL93" s="7"/>
       <c r="BM93" s="7"/>
-      <c r="BN93" s="7"/>
-      <c r="BO93" s="7"/>
-      <c r="BP93" s="7"/>
-      <c r="BQ93" s="7"/>
-      <c r="BR93" s="7"/>
-      <c r="BS93" s="7"/>
-      <c r="BT93" s="7"/>
-      <c r="BU93" s="7"/>
-      <c r="BV93" s="7"/>
+      <c r="BN93" s="4"/>
+      <c r="BO93" s="2"/>
+      <c r="BP93" s="2"/>
+      <c r="BQ93" s="2"/>
+      <c r="BR93" s="2"/>
+      <c r="BS93" s="2"/>
+      <c r="BT93" s="2"/>
+      <c r="BU93" s="2"/>
+      <c r="BV93" s="9"/>
       <c r="BW93" s="7"/>
       <c r="BX93" s="7"/>
       <c r="BY93" s="7"/>
@@ -12640,12 +12513,12 @@
       <c r="CD93" s="7"/>
       <c r="CE93" s="7"/>
       <c r="CF93" s="7"/>
-      <c r="CG93" s="7"/>
-      <c r="CH93" s="7"/>
-      <c r="CI93" s="7"/>
-      <c r="CJ93" s="7"/>
-      <c r="CK93" s="7"/>
-      <c r="CL93" s="7"/>
+      <c r="CG93" s="2"/>
+      <c r="CH93" s="2"/>
+      <c r="CI93" s="2"/>
+      <c r="CJ93" s="2"/>
+      <c r="CK93" s="2"/>
+      <c r="CL93" s="2"/>
       <c r="CM93" s="7"/>
       <c r="CN93" s="7"/>
       <c r="CO93" s="7"/>
@@ -12658,7 +12531,7 @@
       <c r="CV93" s="7"/>
       <c r="CW93" s="7"/>
       <c r="CX93" s="7"/>
-      <c r="CY93" s="17"/>
+      <c r="CY93" s="16"/>
       <c r="CZ93" s="2"/>
       <c r="DA93" s="2"/>
       <c r="DB93" s="2"/>
@@ -12711,8 +12584,8 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="12"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="10"/>
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
@@ -12724,12 +12597,12 @@
       <c r="AJ94" s="7"/>
       <c r="AK94" s="7"/>
       <c r="AL94" s="7"/>
-      <c r="AM94" s="2"/>
-      <c r="AN94" s="2"/>
-      <c r="AO94" s="2"/>
-      <c r="AP94" s="2"/>
-      <c r="AQ94" s="2"/>
-      <c r="AR94" s="2"/>
+      <c r="AM94" s="7"/>
+      <c r="AN94" s="7"/>
+      <c r="AO94" s="7"/>
+      <c r="AP94" s="7"/>
+      <c r="AQ94" s="7"/>
+      <c r="AR94" s="7"/>
       <c r="AS94" s="7"/>
       <c r="AT94" s="7"/>
       <c r="AU94" s="7"/>
@@ -12741,24 +12614,24 @@
       <c r="BA94" s="7"/>
       <c r="BB94" s="7"/>
       <c r="BC94" s="7"/>
-      <c r="BD94" s="9"/>
-      <c r="BE94" s="2"/>
-      <c r="BF94" s="2"/>
-      <c r="BG94" s="2"/>
-      <c r="BH94" s="2"/>
-      <c r="BI94" s="2"/>
-      <c r="BJ94" s="2"/>
-      <c r="BK94" s="2"/>
-      <c r="BL94" s="4"/>
-      <c r="BM94" s="7"/>
-      <c r="BN94" s="7"/>
-      <c r="BO94" s="7"/>
-      <c r="BP94" s="7"/>
-      <c r="BQ94" s="7"/>
-      <c r="BR94" s="7"/>
-      <c r="BS94" s="7"/>
-      <c r="BT94" s="7"/>
-      <c r="BU94" s="7"/>
+      <c r="BD94" s="7"/>
+      <c r="BE94" s="7"/>
+      <c r="BF94" s="7"/>
+      <c r="BG94" s="7"/>
+      <c r="BH94" s="7"/>
+      <c r="BI94" s="7"/>
+      <c r="BJ94" s="7"/>
+      <c r="BK94" s="7"/>
+      <c r="BL94" s="7"/>
+      <c r="BM94" s="4"/>
+      <c r="BN94" s="2"/>
+      <c r="BO94" s="2"/>
+      <c r="BP94" s="2"/>
+      <c r="BQ94" s="2"/>
+      <c r="BR94" s="2"/>
+      <c r="BS94" s="2"/>
+      <c r="BT94" s="2"/>
+      <c r="BU94" s="9"/>
       <c r="BV94" s="7"/>
       <c r="BW94" s="7"/>
       <c r="BX94" s="7"/>
@@ -12770,12 +12643,12 @@
       <c r="CD94" s="7"/>
       <c r="CE94" s="7"/>
       <c r="CF94" s="7"/>
-      <c r="CG94" s="7"/>
-      <c r="CH94" s="7"/>
-      <c r="CI94" s="7"/>
-      <c r="CJ94" s="7"/>
-      <c r="CK94" s="7"/>
-      <c r="CL94" s="7"/>
+      <c r="CG94" s="2"/>
+      <c r="CH94" s="2"/>
+      <c r="CI94" s="2"/>
+      <c r="CJ94" s="2"/>
+      <c r="CK94" s="2"/>
+      <c r="CL94" s="2"/>
       <c r="CM94" s="7"/>
       <c r="CN94" s="7"/>
       <c r="CO94" s="7"/>
@@ -12787,8 +12660,8 @@
       <c r="CU94" s="7"/>
       <c r="CV94" s="7"/>
       <c r="CW94" s="7"/>
-      <c r="CX94" s="12"/>
-      <c r="CY94" s="3"/>
+      <c r="CX94" s="10"/>
+      <c r="CY94" s="15"/>
       <c r="CZ94" s="2"/>
       <c r="DA94" s="2"/>
       <c r="DB94" s="2"/>
@@ -12854,12 +12727,12 @@
       <c r="AJ95" s="7"/>
       <c r="AK95" s="7"/>
       <c r="AL95" s="7"/>
-      <c r="AM95" s="2"/>
-      <c r="AN95" s="2"/>
-      <c r="AO95" s="2"/>
-      <c r="AP95" s="2"/>
-      <c r="AQ95" s="2"/>
-      <c r="AR95" s="2"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+      <c r="AO95" s="7"/>
+      <c r="AP95" s="7"/>
+      <c r="AQ95" s="7"/>
+      <c r="AR95" s="7"/>
       <c r="AS95" s="7"/>
       <c r="AT95" s="7"/>
       <c r="AU95" s="7"/>
@@ -12872,22 +12745,22 @@
       <c r="BB95" s="7"/>
       <c r="BC95" s="7"/>
       <c r="BD95" s="7"/>
-      <c r="BE95" s="9"/>
-      <c r="BF95" s="2"/>
-      <c r="BG95" s="2"/>
-      <c r="BH95" s="2"/>
-      <c r="BI95" s="2"/>
-      <c r="BJ95" s="2"/>
-      <c r="BK95" s="2"/>
-      <c r="BL95" s="2"/>
-      <c r="BM95" s="4"/>
-      <c r="BN95" s="7"/>
-      <c r="BO95" s="7"/>
-      <c r="BP95" s="7"/>
-      <c r="BQ95" s="7"/>
-      <c r="BR95" s="7"/>
-      <c r="BS95" s="7"/>
-      <c r="BT95" s="7"/>
+      <c r="BE95" s="7"/>
+      <c r="BF95" s="7"/>
+      <c r="BG95" s="7"/>
+      <c r="BH95" s="7"/>
+      <c r="BI95" s="7"/>
+      <c r="BJ95" s="7"/>
+      <c r="BK95" s="7"/>
+      <c r="BL95" s="4"/>
+      <c r="BM95" s="2"/>
+      <c r="BN95" s="2"/>
+      <c r="BO95" s="2"/>
+      <c r="BP95" s="2"/>
+      <c r="BQ95" s="2"/>
+      <c r="BR95" s="2"/>
+      <c r="BS95" s="2"/>
+      <c r="BT95" s="9"/>
       <c r="BU95" s="7"/>
       <c r="BV95" s="7"/>
       <c r="BW95" s="7"/>
@@ -12900,12 +12773,12 @@
       <c r="CD95" s="7"/>
       <c r="CE95" s="7"/>
       <c r="CF95" s="7"/>
-      <c r="CG95" s="7"/>
-      <c r="CH95" s="7"/>
-      <c r="CI95" s="7"/>
-      <c r="CJ95" s="7"/>
-      <c r="CK95" s="7"/>
-      <c r="CL95" s="7"/>
+      <c r="CG95" s="2"/>
+      <c r="CH95" s="2"/>
+      <c r="CI95" s="2"/>
+      <c r="CJ95" s="2"/>
+      <c r="CK95" s="2"/>
+      <c r="CL95" s="2"/>
       <c r="CM95" s="7"/>
       <c r="CN95" s="7"/>
       <c r="CO95" s="7"/>
@@ -12984,12 +12857,12 @@
       <c r="AJ96" s="7"/>
       <c r="AK96" s="7"/>
       <c r="AL96" s="7"/>
-      <c r="AM96" s="2"/>
-      <c r="AN96" s="2"/>
-      <c r="AO96" s="2"/>
-      <c r="AP96" s="2"/>
-      <c r="AQ96" s="2"/>
-      <c r="AR96" s="2"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="7"/>
       <c r="AS96" s="7"/>
       <c r="AT96" s="7"/>
       <c r="AU96" s="7"/>
@@ -13003,20 +12876,20 @@
       <c r="BC96" s="7"/>
       <c r="BD96" s="7"/>
       <c r="BE96" s="7"/>
-      <c r="BF96" s="9"/>
-      <c r="BG96" s="2"/>
-      <c r="BH96" s="2"/>
-      <c r="BI96" s="2"/>
-      <c r="BJ96" s="2"/>
-      <c r="BK96" s="2"/>
+      <c r="BF96" s="7"/>
+      <c r="BG96" s="7"/>
+      <c r="BH96" s="7"/>
+      <c r="BI96" s="7"/>
+      <c r="BJ96" s="7"/>
+      <c r="BK96" s="4"/>
       <c r="BL96" s="2"/>
       <c r="BM96" s="2"/>
-      <c r="BN96" s="4"/>
-      <c r="BO96" s="7"/>
-      <c r="BP96" s="7"/>
-      <c r="BQ96" s="7"/>
-      <c r="BR96" s="7"/>
-      <c r="BS96" s="7"/>
+      <c r="BN96" s="2"/>
+      <c r="BO96" s="2"/>
+      <c r="BP96" s="2"/>
+      <c r="BQ96" s="2"/>
+      <c r="BR96" s="2"/>
+      <c r="BS96" s="9"/>
       <c r="BT96" s="7"/>
       <c r="BU96" s="7"/>
       <c r="BV96" s="7"/>
@@ -13030,12 +12903,12 @@
       <c r="CD96" s="7"/>
       <c r="CE96" s="7"/>
       <c r="CF96" s="7"/>
-      <c r="CG96" s="7"/>
-      <c r="CH96" s="7"/>
-      <c r="CI96" s="7"/>
-      <c r="CJ96" s="7"/>
-      <c r="CK96" s="7"/>
-      <c r="CL96" s="7"/>
+      <c r="CG96" s="2"/>
+      <c r="CH96" s="2"/>
+      <c r="CI96" s="2"/>
+      <c r="CJ96" s="2"/>
+      <c r="CK96" s="2"/>
+      <c r="CL96" s="2"/>
       <c r="CM96" s="7"/>
       <c r="CN96" s="7"/>
       <c r="CO96" s="7"/>
@@ -13114,12 +12987,12 @@
       <c r="AJ97" s="7"/>
       <c r="AK97" s="7"/>
       <c r="AL97" s="7"/>
-      <c r="AM97" s="2"/>
-      <c r="AN97" s="2"/>
-      <c r="AO97" s="2"/>
-      <c r="AP97" s="2"/>
-      <c r="AQ97" s="2"/>
-      <c r="AR97" s="2"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="7"/>
       <c r="AS97" s="7"/>
       <c r="AT97" s="7"/>
       <c r="AU97" s="7"/>
@@ -13134,18 +13007,18 @@
       <c r="BD97" s="7"/>
       <c r="BE97" s="7"/>
       <c r="BF97" s="7"/>
-      <c r="BG97" s="9"/>
-      <c r="BH97" s="2"/>
-      <c r="BI97" s="2"/>
-      <c r="BJ97" s="2"/>
+      <c r="BG97" s="7"/>
+      <c r="BH97" s="7"/>
+      <c r="BI97" s="7"/>
+      <c r="BJ97" s="4"/>
       <c r="BK97" s="2"/>
       <c r="BL97" s="2"/>
       <c r="BM97" s="2"/>
       <c r="BN97" s="2"/>
-      <c r="BO97" s="4"/>
-      <c r="BP97" s="7"/>
-      <c r="BQ97" s="7"/>
-      <c r="BR97" s="7"/>
+      <c r="BO97" s="2"/>
+      <c r="BP97" s="2"/>
+      <c r="BQ97" s="2"/>
+      <c r="BR97" s="9"/>
       <c r="BS97" s="7"/>
       <c r="BT97" s="7"/>
       <c r="BU97" s="7"/>
@@ -13160,12 +13033,12 @@
       <c r="CD97" s="7"/>
       <c r="CE97" s="7"/>
       <c r="CF97" s="7"/>
-      <c r="CG97" s="7"/>
-      <c r="CH97" s="7"/>
-      <c r="CI97" s="7"/>
-      <c r="CJ97" s="7"/>
-      <c r="CK97" s="7"/>
-      <c r="CL97" s="7"/>
+      <c r="CG97" s="2"/>
+      <c r="CH97" s="2"/>
+      <c r="CI97" s="2"/>
+      <c r="CJ97" s="2"/>
+      <c r="CK97" s="2"/>
+      <c r="CL97" s="2"/>
       <c r="CM97" s="7"/>
       <c r="CN97" s="7"/>
       <c r="CO97" s="7"/>
@@ -13244,12 +13117,12 @@
       <c r="AJ98" s="7"/>
       <c r="AK98" s="7"/>
       <c r="AL98" s="7"/>
-      <c r="AM98" s="2"/>
-      <c r="AN98" s="2"/>
-      <c r="AO98" s="2"/>
-      <c r="AP98" s="2"/>
-      <c r="AQ98" s="2"/>
-      <c r="AR98" s="2"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="7"/>
+      <c r="AO98" s="7"/>
+      <c r="AP98" s="7"/>
+      <c r="AQ98" s="7"/>
+      <c r="AR98" s="7"/>
       <c r="AS98" s="7"/>
       <c r="AT98" s="7"/>
       <c r="AU98" s="7"/>
@@ -13265,16 +13138,16 @@
       <c r="BE98" s="7"/>
       <c r="BF98" s="7"/>
       <c r="BG98" s="7"/>
-      <c r="BH98" s="9"/>
-      <c r="BI98" s="2"/>
+      <c r="BH98" s="7"/>
+      <c r="BI98" s="4"/>
       <c r="BJ98" s="2"/>
       <c r="BK98" s="2"/>
       <c r="BL98" s="2"/>
       <c r="BM98" s="2"/>
       <c r="BN98" s="2"/>
       <c r="BO98" s="2"/>
-      <c r="BP98" s="4"/>
-      <c r="BQ98" s="7"/>
+      <c r="BP98" s="2"/>
+      <c r="BQ98" s="9"/>
       <c r="BR98" s="7"/>
       <c r="BS98" s="7"/>
       <c r="BT98" s="7"/>
@@ -13290,12 +13163,12 @@
       <c r="CD98" s="7"/>
       <c r="CE98" s="7"/>
       <c r="CF98" s="7"/>
-      <c r="CG98" s="7"/>
-      <c r="CH98" s="7"/>
-      <c r="CI98" s="7"/>
-      <c r="CJ98" s="7"/>
-      <c r="CK98" s="7"/>
-      <c r="CL98" s="7"/>
+      <c r="CG98" s="2"/>
+      <c r="CH98" s="2"/>
+      <c r="CI98" s="2"/>
+      <c r="CJ98" s="2"/>
+      <c r="CK98" s="2"/>
+      <c r="CL98" s="2"/>
       <c r="CM98" s="7"/>
       <c r="CN98" s="7"/>
       <c r="CO98" s="7"/>
@@ -13374,12 +13247,12 @@
       <c r="AJ99" s="7"/>
       <c r="AK99" s="7"/>
       <c r="AL99" s="7"/>
-      <c r="AM99" s="2"/>
-      <c r="AN99" s="2"/>
-      <c r="AO99" s="2"/>
-      <c r="AP99" s="2"/>
-      <c r="AQ99" s="2"/>
-      <c r="AR99" s="2"/>
+      <c r="AM99" s="7"/>
+      <c r="AN99" s="7"/>
+      <c r="AO99" s="7"/>
+      <c r="AP99" s="7"/>
+      <c r="AQ99" s="7"/>
+      <c r="AR99" s="7"/>
       <c r="AS99" s="7"/>
       <c r="AT99" s="7"/>
       <c r="AU99" s="7"/>
@@ -13395,16 +13268,16 @@
       <c r="BE99" s="7"/>
       <c r="BF99" s="7"/>
       <c r="BG99" s="7"/>
-      <c r="BH99" s="7"/>
-      <c r="BI99" s="9"/>
+      <c r="BH99" s="4"/>
+      <c r="BI99" s="2"/>
       <c r="BJ99" s="2"/>
       <c r="BK99" s="2"/>
       <c r="BL99" s="2"/>
       <c r="BM99" s="2"/>
       <c r="BN99" s="2"/>
       <c r="BO99" s="2"/>
-      <c r="BP99" s="2"/>
-      <c r="BQ99" s="4"/>
+      <c r="BP99" s="9"/>
+      <c r="BQ99" s="7"/>
       <c r="BR99" s="7"/>
       <c r="BS99" s="7"/>
       <c r="BT99" s="7"/>
@@ -13420,12 +13293,12 @@
       <c r="CD99" s="7"/>
       <c r="CE99" s="7"/>
       <c r="CF99" s="7"/>
-      <c r="CG99" s="7"/>
-      <c r="CH99" s="7"/>
-      <c r="CI99" s="7"/>
-      <c r="CJ99" s="7"/>
-      <c r="CK99" s="7"/>
-      <c r="CL99" s="7"/>
+      <c r="CG99" s="2"/>
+      <c r="CH99" s="2"/>
+      <c r="CI99" s="2"/>
+      <c r="CJ99" s="2"/>
+      <c r="CK99" s="2"/>
+      <c r="CL99" s="2"/>
       <c r="CM99" s="7"/>
       <c r="CN99" s="7"/>
       <c r="CO99" s="7"/>
@@ -13504,12 +13377,12 @@
       <c r="AJ100" s="7"/>
       <c r="AK100" s="7"/>
       <c r="AL100" s="7"/>
-      <c r="AM100" s="2"/>
-      <c r="AN100" s="2"/>
-      <c r="AO100" s="2"/>
-      <c r="AP100" s="2"/>
-      <c r="AQ100" s="2"/>
-      <c r="AR100" s="2"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
       <c r="AS100" s="7"/>
       <c r="AT100" s="7"/>
       <c r="AU100" s="7"/>
@@ -13524,18 +13397,18 @@
       <c r="BD100" s="7"/>
       <c r="BE100" s="7"/>
       <c r="BF100" s="7"/>
-      <c r="BG100" s="7"/>
-      <c r="BH100" s="7"/>
-      <c r="BI100" s="7"/>
-      <c r="BJ100" s="9"/>
+      <c r="BG100" s="4"/>
+      <c r="BH100" s="2"/>
+      <c r="BI100" s="2"/>
+      <c r="BJ100" s="2"/>
       <c r="BK100" s="2"/>
       <c r="BL100" s="2"/>
       <c r="BM100" s="2"/>
       <c r="BN100" s="2"/>
-      <c r="BO100" s="2"/>
-      <c r="BP100" s="2"/>
-      <c r="BQ100" s="2"/>
-      <c r="BR100" s="4"/>
+      <c r="BO100" s="9"/>
+      <c r="BP100" s="7"/>
+      <c r="BQ100" s="7"/>
+      <c r="BR100" s="7"/>
       <c r="BS100" s="7"/>
       <c r="BT100" s="7"/>
       <c r="BU100" s="7"/>
@@ -13550,12 +13423,12 @@
       <c r="CD100" s="7"/>
       <c r="CE100" s="7"/>
       <c r="CF100" s="7"/>
-      <c r="CG100" s="7"/>
-      <c r="CH100" s="7"/>
-      <c r="CI100" s="7"/>
-      <c r="CJ100" s="7"/>
-      <c r="CK100" s="7"/>
-      <c r="CL100" s="7"/>
+      <c r="CG100" s="2"/>
+      <c r="CH100" s="2"/>
+      <c r="CI100" s="2"/>
+      <c r="CJ100" s="2"/>
+      <c r="CK100" s="2"/>
+      <c r="CL100" s="2"/>
       <c r="CM100" s="7"/>
       <c r="CN100" s="7"/>
       <c r="CO100" s="7"/>
@@ -13634,12 +13507,12 @@
       <c r="AJ101" s="7"/>
       <c r="AK101" s="7"/>
       <c r="AL101" s="7"/>
-      <c r="AM101" s="2"/>
-      <c r="AN101" s="2"/>
-      <c r="AO101" s="2"/>
-      <c r="AP101" s="2"/>
-      <c r="AQ101" s="2"/>
-      <c r="AR101" s="2"/>
+      <c r="AM101" s="7"/>
+      <c r="AN101" s="7"/>
+      <c r="AO101" s="7"/>
+      <c r="AP101" s="7"/>
+      <c r="AQ101" s="7"/>
+      <c r="AR101" s="7"/>
       <c r="AS101" s="7"/>
       <c r="AT101" s="7"/>
       <c r="AU101" s="7"/>
@@ -13653,20 +13526,20 @@
       <c r="BC101" s="7"/>
       <c r="BD101" s="7"/>
       <c r="BE101" s="7"/>
-      <c r="BF101" s="7"/>
-      <c r="BG101" s="7"/>
-      <c r="BH101" s="7"/>
-      <c r="BI101" s="7"/>
-      <c r="BJ101" s="7"/>
-      <c r="BK101" s="9"/>
+      <c r="BF101" s="4"/>
+      <c r="BG101" s="2"/>
+      <c r="BH101" s="2"/>
+      <c r="BI101" s="2"/>
+      <c r="BJ101" s="2"/>
+      <c r="BK101" s="2"/>
       <c r="BL101" s="2"/>
       <c r="BM101" s="2"/>
-      <c r="BN101" s="2"/>
-      <c r="BO101" s="2"/>
-      <c r="BP101" s="2"/>
-      <c r="BQ101" s="2"/>
-      <c r="BR101" s="2"/>
-      <c r="BS101" s="4"/>
+      <c r="BN101" s="9"/>
+      <c r="BO101" s="7"/>
+      <c r="BP101" s="7"/>
+      <c r="BQ101" s="7"/>
+      <c r="BR101" s="7"/>
+      <c r="BS101" s="7"/>
       <c r="BT101" s="7"/>
       <c r="BU101" s="7"/>
       <c r="BV101" s="7"/>
@@ -13680,12 +13553,12 @@
       <c r="CD101" s="7"/>
       <c r="CE101" s="7"/>
       <c r="CF101" s="7"/>
-      <c r="CG101" s="7"/>
-      <c r="CH101" s="7"/>
-      <c r="CI101" s="7"/>
-      <c r="CJ101" s="7"/>
-      <c r="CK101" s="7"/>
-      <c r="CL101" s="7"/>
+      <c r="CG101" s="2"/>
+      <c r="CH101" s="2"/>
+      <c r="CI101" s="2"/>
+      <c r="CJ101" s="2"/>
+      <c r="CK101" s="2"/>
+      <c r="CL101" s="2"/>
       <c r="CM101" s="7"/>
       <c r="CN101" s="7"/>
       <c r="CO101" s="7"/>
@@ -13760,16 +13633,16 @@
       <c r="AF102" s="2"/>
       <c r="AG102" s="2"/>
       <c r="AH102" s="11"/>
-      <c r="AI102" s="12"/>
+      <c r="AI102" s="10"/>
       <c r="AJ102" s="7"/>
       <c r="AK102" s="7"/>
       <c r="AL102" s="7"/>
-      <c r="AM102" s="2"/>
-      <c r="AN102" s="2"/>
-      <c r="AO102" s="2"/>
-      <c r="AP102" s="2"/>
-      <c r="AQ102" s="2"/>
-      <c r="AR102" s="2"/>
+      <c r="AM102" s="7"/>
+      <c r="AN102" s="7"/>
+      <c r="AO102" s="7"/>
+      <c r="AP102" s="7"/>
+      <c r="AQ102" s="7"/>
+      <c r="AR102" s="7"/>
       <c r="AS102" s="7"/>
       <c r="AT102" s="7"/>
       <c r="AU102" s="7"/>
@@ -13782,22 +13655,22 @@
       <c r="BB102" s="7"/>
       <c r="BC102" s="7"/>
       <c r="BD102" s="7"/>
-      <c r="BE102" s="7"/>
-      <c r="BF102" s="7"/>
-      <c r="BG102" s="7"/>
-      <c r="BH102" s="7"/>
-      <c r="BI102" s="7"/>
-      <c r="BJ102" s="7"/>
-      <c r="BK102" s="7"/>
-      <c r="BL102" s="9"/>
-      <c r="BM102" s="2"/>
-      <c r="BN102" s="2"/>
-      <c r="BO102" s="2"/>
-      <c r="BP102" s="2"/>
-      <c r="BQ102" s="2"/>
-      <c r="BR102" s="2"/>
-      <c r="BS102" s="2"/>
-      <c r="BT102" s="4"/>
+      <c r="BE102" s="4"/>
+      <c r="BF102" s="2"/>
+      <c r="BG102" s="2"/>
+      <c r="BH102" s="2"/>
+      <c r="BI102" s="2"/>
+      <c r="BJ102" s="2"/>
+      <c r="BK102" s="2"/>
+      <c r="BL102" s="2"/>
+      <c r="BM102" s="9"/>
+      <c r="BN102" s="7"/>
+      <c r="BO102" s="7"/>
+      <c r="BP102" s="7"/>
+      <c r="BQ102" s="7"/>
+      <c r="BR102" s="7"/>
+      <c r="BS102" s="7"/>
+      <c r="BT102" s="7"/>
       <c r="BU102" s="7"/>
       <c r="BV102" s="7"/>
       <c r="BW102" s="7"/>
@@ -13810,16 +13683,16 @@
       <c r="CD102" s="7"/>
       <c r="CE102" s="7"/>
       <c r="CF102" s="7"/>
-      <c r="CG102" s="7"/>
-      <c r="CH102" s="7"/>
-      <c r="CI102" s="7"/>
-      <c r="CJ102" s="7"/>
-      <c r="CK102" s="7"/>
-      <c r="CL102" s="7"/>
+      <c r="CG102" s="2"/>
+      <c r="CH102" s="2"/>
+      <c r="CI102" s="2"/>
+      <c r="CJ102" s="2"/>
+      <c r="CK102" s="2"/>
+      <c r="CL102" s="2"/>
       <c r="CM102" s="7"/>
       <c r="CN102" s="7"/>
       <c r="CO102" s="7"/>
-      <c r="CP102" s="12"/>
+      <c r="CP102" s="10"/>
       <c r="CQ102" s="11"/>
       <c r="CR102" s="2"/>
       <c r="CS102" s="2"/>
@@ -13890,16 +13763,16 @@
       <c r="AF103" s="2"/>
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
-      <c r="AI103" s="3"/>
-      <c r="AJ103" s="17"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="16"/>
       <c r="AK103" s="7"/>
       <c r="AL103" s="7"/>
-      <c r="AM103" s="2"/>
-      <c r="AN103" s="2"/>
-      <c r="AO103" s="2"/>
-      <c r="AP103" s="2"/>
-      <c r="AQ103" s="2"/>
-      <c r="AR103" s="2"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+      <c r="AO103" s="7"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="7"/>
       <c r="AS103" s="7"/>
       <c r="AT103" s="7"/>
       <c r="AU103" s="7"/>
@@ -13911,24 +13784,24 @@
       <c r="BA103" s="7"/>
       <c r="BB103" s="7"/>
       <c r="BC103" s="7"/>
-      <c r="BD103" s="7"/>
-      <c r="BE103" s="7"/>
-      <c r="BF103" s="7"/>
-      <c r="BG103" s="7"/>
-      <c r="BH103" s="7"/>
-      <c r="BI103" s="7"/>
-      <c r="BJ103" s="7"/>
-      <c r="BK103" s="7"/>
-      <c r="BL103" s="7"/>
-      <c r="BM103" s="9"/>
-      <c r="BN103" s="2"/>
-      <c r="BO103" s="2"/>
-      <c r="BP103" s="2"/>
-      <c r="BQ103" s="2"/>
-      <c r="BR103" s="2"/>
-      <c r="BS103" s="2"/>
-      <c r="BT103" s="2"/>
-      <c r="BU103" s="4"/>
+      <c r="BD103" s="4"/>
+      <c r="BE103" s="2"/>
+      <c r="BF103" s="2"/>
+      <c r="BG103" s="2"/>
+      <c r="BH103" s="2"/>
+      <c r="BI103" s="2"/>
+      <c r="BJ103" s="2"/>
+      <c r="BK103" s="2"/>
+      <c r="BL103" s="9"/>
+      <c r="BM103" s="7"/>
+      <c r="BN103" s="7"/>
+      <c r="BO103" s="7"/>
+      <c r="BP103" s="7"/>
+      <c r="BQ103" s="7"/>
+      <c r="BR103" s="7"/>
+      <c r="BS103" s="7"/>
+      <c r="BT103" s="7"/>
+      <c r="BU103" s="7"/>
       <c r="BV103" s="7"/>
       <c r="BW103" s="7"/>
       <c r="BX103" s="7"/>
@@ -13940,16 +13813,16 @@
       <c r="CD103" s="7"/>
       <c r="CE103" s="7"/>
       <c r="CF103" s="7"/>
-      <c r="CG103" s="7"/>
-      <c r="CH103" s="7"/>
-      <c r="CI103" s="7"/>
-      <c r="CJ103" s="7"/>
-      <c r="CK103" s="7"/>
-      <c r="CL103" s="7"/>
+      <c r="CG103" s="2"/>
+      <c r="CH103" s="2"/>
+      <c r="CI103" s="2"/>
+      <c r="CJ103" s="2"/>
+      <c r="CK103" s="2"/>
+      <c r="CL103" s="2"/>
       <c r="CM103" s="7"/>
       <c r="CN103" s="7"/>
-      <c r="CO103" s="17"/>
-      <c r="CP103" s="3"/>
+      <c r="CO103" s="16"/>
+      <c r="CP103" s="15"/>
       <c r="CQ103" s="2"/>
       <c r="CR103" s="2"/>
       <c r="CS103" s="2"/>
@@ -14022,14 +13895,14 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
       <c r="AJ104" s="2"/>
-      <c r="AK104" s="16"/>
+      <c r="AK104" s="17"/>
       <c r="AL104" s="7"/>
-      <c r="AM104" s="2"/>
-      <c r="AN104" s="2"/>
-      <c r="AO104" s="2"/>
-      <c r="AP104" s="2"/>
-      <c r="AQ104" s="2"/>
-      <c r="AR104" s="2"/>
+      <c r="AM104" s="7"/>
+      <c r="AN104" s="7"/>
+      <c r="AO104" s="7"/>
+      <c r="AP104" s="7"/>
+      <c r="AQ104" s="7"/>
+      <c r="AR104" s="7"/>
       <c r="AS104" s="7"/>
       <c r="AT104" s="7"/>
       <c r="AU104" s="7"/>
@@ -14040,26 +13913,26 @@
       <c r="AZ104" s="7"/>
       <c r="BA104" s="7"/>
       <c r="BB104" s="7"/>
-      <c r="BC104" s="7"/>
-      <c r="BD104" s="7"/>
-      <c r="BE104" s="7"/>
-      <c r="BF104" s="7"/>
-      <c r="BG104" s="7"/>
-      <c r="BH104" s="7"/>
-      <c r="BI104" s="7"/>
-      <c r="BJ104" s="7"/>
-      <c r="BK104" s="7"/>
+      <c r="BC104" s="4"/>
+      <c r="BD104" s="2"/>
+      <c r="BE104" s="2"/>
+      <c r="BF104" s="2"/>
+      <c r="BG104" s="2"/>
+      <c r="BH104" s="2"/>
+      <c r="BI104" s="2"/>
+      <c r="BJ104" s="2"/>
+      <c r="BK104" s="9"/>
       <c r="BL104" s="7"/>
       <c r="BM104" s="7"/>
-      <c r="BN104" s="9"/>
-      <c r="BO104" s="2"/>
-      <c r="BP104" s="2"/>
-      <c r="BQ104" s="2"/>
-      <c r="BR104" s="2"/>
-      <c r="BS104" s="2"/>
-      <c r="BT104" s="2"/>
-      <c r="BU104" s="2"/>
-      <c r="BV104" s="4"/>
+      <c r="BN104" s="7"/>
+      <c r="BO104" s="7"/>
+      <c r="BP104" s="7"/>
+      <c r="BQ104" s="7"/>
+      <c r="BR104" s="7"/>
+      <c r="BS104" s="7"/>
+      <c r="BT104" s="7"/>
+      <c r="BU104" s="7"/>
+      <c r="BV104" s="7"/>
       <c r="BW104" s="7"/>
       <c r="BX104" s="7"/>
       <c r="BY104" s="7"/>
@@ -14070,14 +13943,14 @@
       <c r="CD104" s="7"/>
       <c r="CE104" s="7"/>
       <c r="CF104" s="7"/>
-      <c r="CG104" s="7"/>
-      <c r="CH104" s="7"/>
-      <c r="CI104" s="7"/>
-      <c r="CJ104" s="7"/>
-      <c r="CK104" s="7"/>
-      <c r="CL104" s="7"/>
+      <c r="CG104" s="2"/>
+      <c r="CH104" s="2"/>
+      <c r="CI104" s="2"/>
+      <c r="CJ104" s="2"/>
+      <c r="CK104" s="2"/>
+      <c r="CL104" s="2"/>
       <c r="CM104" s="7"/>
-      <c r="CN104" s="16"/>
+      <c r="CN104" s="17"/>
       <c r="CO104" s="2"/>
       <c r="CP104" s="2"/>
       <c r="CQ104" s="2"/>
@@ -14153,13 +14026,13 @@
       <c r="AI105" s="2"/>
       <c r="AJ105" s="2"/>
       <c r="AK105" s="2"/>
-      <c r="AL105" s="8"/>
-      <c r="AM105" s="2"/>
-      <c r="AN105" s="2"/>
-      <c r="AO105" s="2"/>
-      <c r="AP105" s="2"/>
-      <c r="AQ105" s="2"/>
-      <c r="AR105" s="2"/>
+      <c r="AL105" s="3"/>
+      <c r="AM105" s="16"/>
+      <c r="AN105" s="7"/>
+      <c r="AO105" s="7"/>
+      <c r="AP105" s="7"/>
+      <c r="AQ105" s="7"/>
+      <c r="AR105" s="7"/>
       <c r="AS105" s="7"/>
       <c r="AT105" s="7"/>
       <c r="AU105" s="7"/>
@@ -14169,28 +14042,28 @@
       <c r="AY105" s="7"/>
       <c r="AZ105" s="7"/>
       <c r="BA105" s="7"/>
-      <c r="BB105" s="7"/>
-      <c r="BC105" s="7"/>
-      <c r="BD105" s="7"/>
-      <c r="BE105" s="7"/>
-      <c r="BF105" s="7"/>
-      <c r="BG105" s="7"/>
-      <c r="BH105" s="7"/>
-      <c r="BI105" s="7"/>
-      <c r="BJ105" s="7"/>
+      <c r="BB105" s="4"/>
+      <c r="BC105" s="2"/>
+      <c r="BD105" s="2"/>
+      <c r="BE105" s="2"/>
+      <c r="BF105" s="2"/>
+      <c r="BG105" s="2"/>
+      <c r="BH105" s="2"/>
+      <c r="BI105" s="2"/>
+      <c r="BJ105" s="9"/>
       <c r="BK105" s="7"/>
       <c r="BL105" s="7"/>
       <c r="BM105" s="7"/>
       <c r="BN105" s="7"/>
-      <c r="BO105" s="9"/>
-      <c r="BP105" s="2"/>
-      <c r="BQ105" s="2"/>
-      <c r="BR105" s="2"/>
-      <c r="BS105" s="2"/>
-      <c r="BT105" s="2"/>
-      <c r="BU105" s="2"/>
-      <c r="BV105" s="2"/>
-      <c r="BW105" s="4"/>
+      <c r="BO105" s="7"/>
+      <c r="BP105" s="7"/>
+      <c r="BQ105" s="7"/>
+      <c r="BR105" s="7"/>
+      <c r="BS105" s="7"/>
+      <c r="BT105" s="7"/>
+      <c r="BU105" s="7"/>
+      <c r="BV105" s="7"/>
+      <c r="BW105" s="7"/>
       <c r="BX105" s="7"/>
       <c r="BY105" s="7"/>
       <c r="BZ105" s="7"/>
@@ -14200,13 +14073,13 @@
       <c r="CD105" s="7"/>
       <c r="CE105" s="7"/>
       <c r="CF105" s="7"/>
-      <c r="CG105" s="7"/>
-      <c r="CH105" s="7"/>
-      <c r="CI105" s="7"/>
-      <c r="CJ105" s="7"/>
-      <c r="CK105" s="7"/>
-      <c r="CL105" s="17"/>
-      <c r="CM105" s="8"/>
+      <c r="CG105" s="2"/>
+      <c r="CH105" s="2"/>
+      <c r="CI105" s="2"/>
+      <c r="CJ105" s="2"/>
+      <c r="CK105" s="2"/>
+      <c r="CL105" s="2"/>
+      <c r="CM105" s="3"/>
       <c r="CN105" s="2"/>
       <c r="CO105" s="2"/>
       <c r="CP105" s="2"/>
@@ -14285,11 +14158,11 @@
       <c r="AK106" s="2"/>
       <c r="AL106" s="2"/>
       <c r="AM106" s="2"/>
-      <c r="AN106" s="2"/>
-      <c r="AO106" s="2"/>
-      <c r="AP106" s="2"/>
-      <c r="AQ106" s="2"/>
-      <c r="AR106" s="2"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="10"/>
+      <c r="AP106" s="7"/>
+      <c r="AQ106" s="7"/>
+      <c r="AR106" s="7"/>
       <c r="AS106" s="7"/>
       <c r="AT106" s="7"/>
       <c r="AU106" s="7"/>
@@ -14298,30 +14171,30 @@
       <c r="AX106" s="7"/>
       <c r="AY106" s="7"/>
       <c r="AZ106" s="7"/>
-      <c r="BA106" s="7"/>
-      <c r="BB106" s="7"/>
-      <c r="BC106" s="7"/>
-      <c r="BD106" s="7"/>
-      <c r="BE106" s="7"/>
-      <c r="BF106" s="7"/>
-      <c r="BG106" s="7"/>
-      <c r="BH106" s="7"/>
-      <c r="BI106" s="7"/>
+      <c r="BA106" s="4"/>
+      <c r="BB106" s="2"/>
+      <c r="BC106" s="2"/>
+      <c r="BD106" s="2"/>
+      <c r="BE106" s="2"/>
+      <c r="BF106" s="2"/>
+      <c r="BG106" s="2"/>
+      <c r="BH106" s="2"/>
+      <c r="BI106" s="9"/>
       <c r="BJ106" s="7"/>
       <c r="BK106" s="7"/>
       <c r="BL106" s="7"/>
       <c r="BM106" s="7"/>
       <c r="BN106" s="7"/>
       <c r="BO106" s="7"/>
-      <c r="BP106" s="9"/>
-      <c r="BQ106" s="2"/>
-      <c r="BR106" s="2"/>
-      <c r="BS106" s="2"/>
-      <c r="BT106" s="2"/>
-      <c r="BU106" s="2"/>
-      <c r="BV106" s="2"/>
-      <c r="BW106" s="2"/>
-      <c r="BX106" s="4"/>
+      <c r="BP106" s="7"/>
+      <c r="BQ106" s="7"/>
+      <c r="BR106" s="7"/>
+      <c r="BS106" s="7"/>
+      <c r="BT106" s="7"/>
+      <c r="BU106" s="7"/>
+      <c r="BV106" s="7"/>
+      <c r="BW106" s="7"/>
+      <c r="BX106" s="7"/>
       <c r="BY106" s="7"/>
       <c r="BZ106" s="7"/>
       <c r="CA106" s="7"/>
@@ -14330,11 +14203,11 @@
       <c r="CD106" s="7"/>
       <c r="CE106" s="7"/>
       <c r="CF106" s="7"/>
-      <c r="CG106" s="7"/>
-      <c r="CH106" s="7"/>
-      <c r="CI106" s="7"/>
-      <c r="CJ106" s="12"/>
-      <c r="CK106" s="5"/>
+      <c r="CG106" s="2"/>
+      <c r="CH106" s="2"/>
+      <c r="CI106" s="2"/>
+      <c r="CJ106" s="2"/>
+      <c r="CK106" s="2"/>
       <c r="CL106" s="2"/>
       <c r="CM106" s="2"/>
       <c r="CN106" s="2"/>
@@ -14416,10 +14289,10 @@
       <c r="AL107" s="2"/>
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
-      <c r="AO107" s="2"/>
-      <c r="AP107" s="2"/>
-      <c r="AQ107" s="2"/>
-      <c r="AR107" s="2"/>
+      <c r="AO107" s="12"/>
+      <c r="AP107" s="9"/>
+      <c r="AQ107" s="7"/>
+      <c r="AR107" s="7"/>
       <c r="AS107" s="7"/>
       <c r="AT107" s="7"/>
       <c r="AU107" s="7"/>
@@ -14427,15 +14300,15 @@
       <c r="AW107" s="7"/>
       <c r="AX107" s="7"/>
       <c r="AY107" s="7"/>
-      <c r="AZ107" s="7"/>
-      <c r="BA107" s="7"/>
-      <c r="BB107" s="7"/>
-      <c r="BC107" s="7"/>
-      <c r="BD107" s="7"/>
-      <c r="BE107" s="7"/>
-      <c r="BF107" s="7"/>
-      <c r="BG107" s="7"/>
-      <c r="BH107" s="7"/>
+      <c r="AZ107" s="4"/>
+      <c r="BA107" s="2"/>
+      <c r="BB107" s="2"/>
+      <c r="BC107" s="2"/>
+      <c r="BD107" s="2"/>
+      <c r="BE107" s="2"/>
+      <c r="BF107" s="2"/>
+      <c r="BG107" s="2"/>
+      <c r="BH107" s="9"/>
       <c r="BI107" s="7"/>
       <c r="BJ107" s="7"/>
       <c r="BK107" s="7"/>
@@ -14444,15 +14317,15 @@
       <c r="BN107" s="7"/>
       <c r="BO107" s="7"/>
       <c r="BP107" s="7"/>
-      <c r="BQ107" s="9"/>
-      <c r="BR107" s="2"/>
-      <c r="BS107" s="2"/>
-      <c r="BT107" s="2"/>
-      <c r="BU107" s="2"/>
-      <c r="BV107" s="2"/>
-      <c r="BW107" s="2"/>
-      <c r="BX107" s="2"/>
-      <c r="BY107" s="4"/>
+      <c r="BQ107" s="7"/>
+      <c r="BR107" s="7"/>
+      <c r="BS107" s="7"/>
+      <c r="BT107" s="7"/>
+      <c r="BU107" s="7"/>
+      <c r="BV107" s="7"/>
+      <c r="BW107" s="7"/>
+      <c r="BX107" s="7"/>
+      <c r="BY107" s="7"/>
       <c r="BZ107" s="7"/>
       <c r="CA107" s="7"/>
       <c r="CB107" s="7"/>
@@ -14460,10 +14333,10 @@
       <c r="CD107" s="7"/>
       <c r="CE107" s="7"/>
       <c r="CF107" s="7"/>
-      <c r="CG107" s="7"/>
-      <c r="CH107" s="7"/>
-      <c r="CI107" s="9"/>
-      <c r="CJ107" s="13"/>
+      <c r="CG107" s="2"/>
+      <c r="CH107" s="2"/>
+      <c r="CI107" s="2"/>
+      <c r="CJ107" s="2"/>
       <c r="CK107" s="2"/>
       <c r="CL107" s="2"/>
       <c r="CM107" s="2"/>
@@ -14548,23 +14421,23 @@
       <c r="AN108" s="2"/>
       <c r="AO108" s="2"/>
       <c r="AP108" s="2"/>
-      <c r="AQ108" s="2"/>
-      <c r="AR108" s="2"/>
-      <c r="AS108" s="12"/>
+      <c r="AQ108" s="15"/>
+      <c r="AR108" s="9"/>
+      <c r="AS108" s="10"/>
       <c r="AT108" s="7"/>
       <c r="AU108" s="7"/>
       <c r="AV108" s="7"/>
       <c r="AW108" s="7"/>
       <c r="AX108" s="7"/>
-      <c r="AY108" s="7"/>
-      <c r="AZ108" s="7"/>
-      <c r="BA108" s="7"/>
-      <c r="BB108" s="7"/>
-      <c r="BC108" s="7"/>
-      <c r="BD108" s="7"/>
-      <c r="BE108" s="7"/>
-      <c r="BF108" s="7"/>
-      <c r="BG108" s="7"/>
+      <c r="AY108" s="4"/>
+      <c r="AZ108" s="2"/>
+      <c r="BA108" s="2"/>
+      <c r="BB108" s="2"/>
+      <c r="BC108" s="2"/>
+      <c r="BD108" s="2"/>
+      <c r="BE108" s="2"/>
+      <c r="BF108" s="2"/>
+      <c r="BG108" s="9"/>
       <c r="BH108" s="7"/>
       <c r="BI108" s="7"/>
       <c r="BJ108" s="7"/>
@@ -14575,23 +14448,23 @@
       <c r="BO108" s="7"/>
       <c r="BP108" s="7"/>
       <c r="BQ108" s="7"/>
-      <c r="BR108" s="9"/>
-      <c r="BS108" s="2"/>
-      <c r="BT108" s="2"/>
-      <c r="BU108" s="2"/>
-      <c r="BV108" s="2"/>
-      <c r="BW108" s="2"/>
-      <c r="BX108" s="2"/>
-      <c r="BY108" s="2"/>
-      <c r="BZ108" s="4"/>
+      <c r="BR108" s="7"/>
+      <c r="BS108" s="7"/>
+      <c r="BT108" s="7"/>
+      <c r="BU108" s="7"/>
+      <c r="BV108" s="7"/>
+      <c r="BW108" s="7"/>
+      <c r="BX108" s="7"/>
+      <c r="BY108" s="7"/>
+      <c r="BZ108" s="7"/>
       <c r="CA108" s="7"/>
       <c r="CB108" s="7"/>
       <c r="CC108" s="7"/>
       <c r="CD108" s="7"/>
       <c r="CE108" s="7"/>
-      <c r="CF108" s="12"/>
-      <c r="CG108" s="9"/>
-      <c r="CH108" s="3"/>
+      <c r="CF108" s="10"/>
+      <c r="CG108" s="2"/>
+      <c r="CH108" s="2"/>
       <c r="CI108" s="2"/>
       <c r="CJ108" s="2"/>
       <c r="CK108" s="2"/>
@@ -14680,20 +14553,20 @@
       <c r="AP109" s="2"/>
       <c r="AQ109" s="2"/>
       <c r="AR109" s="2"/>
-      <c r="AS109" s="13"/>
-      <c r="AT109" s="14"/>
-      <c r="AU109" s="15"/>
+      <c r="AS109" s="12"/>
+      <c r="AT109" s="13"/>
+      <c r="AU109" s="14"/>
       <c r="AV109" s="7"/>
       <c r="AW109" s="7"/>
-      <c r="AX109" s="7"/>
-      <c r="AY109" s="7"/>
-      <c r="AZ109" s="7"/>
-      <c r="BA109" s="7"/>
-      <c r="BB109" s="7"/>
-      <c r="BC109" s="7"/>
-      <c r="BD109" s="7"/>
-      <c r="BE109" s="7"/>
-      <c r="BF109" s="7"/>
+      <c r="AX109" s="4"/>
+      <c r="AY109" s="2"/>
+      <c r="AZ109" s="2"/>
+      <c r="BA109" s="2"/>
+      <c r="BB109" s="2"/>
+      <c r="BC109" s="2"/>
+      <c r="BD109" s="2"/>
+      <c r="BE109" s="2"/>
+      <c r="BF109" s="9"/>
       <c r="BG109" s="7"/>
       <c r="BH109" s="7"/>
       <c r="BI109" s="7"/>
@@ -14706,20 +14579,20 @@
       <c r="BP109" s="7"/>
       <c r="BQ109" s="7"/>
       <c r="BR109" s="7"/>
-      <c r="BS109" s="9"/>
-      <c r="BT109" s="2"/>
-      <c r="BU109" s="2"/>
-      <c r="BV109" s="2"/>
-      <c r="BW109" s="2"/>
-      <c r="BX109" s="2"/>
-      <c r="BY109" s="2"/>
-      <c r="BZ109" s="2"/>
-      <c r="CA109" s="4"/>
+      <c r="BS109" s="7"/>
+      <c r="BT109" s="7"/>
+      <c r="BU109" s="7"/>
+      <c r="BV109" s="7"/>
+      <c r="BW109" s="7"/>
+      <c r="BX109" s="7"/>
+      <c r="BY109" s="7"/>
+      <c r="BZ109" s="7"/>
+      <c r="CA109" s="7"/>
       <c r="CB109" s="7"/>
       <c r="CC109" s="7"/>
-      <c r="CD109" s="15"/>
-      <c r="CE109" s="14"/>
-      <c r="CF109" s="13"/>
+      <c r="CD109" s="14"/>
+      <c r="CE109" s="13"/>
+      <c r="CF109" s="12"/>
       <c r="CG109" s="2"/>
       <c r="CH109" s="2"/>
       <c r="CI109" s="2"/>
@@ -14813,16 +14686,16 @@
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
-      <c r="AV110" s="8"/>
-      <c r="AW110" s="9"/>
-      <c r="AX110" s="12"/>
-      <c r="AY110" s="7"/>
-      <c r="AZ110" s="7"/>
-      <c r="BA110" s="7"/>
-      <c r="BB110" s="7"/>
-      <c r="BC110" s="7"/>
-      <c r="BD110" s="7"/>
-      <c r="BE110" s="7"/>
+      <c r="AV110" s="3"/>
+      <c r="AW110" s="11"/>
+      <c r="AX110" s="2"/>
+      <c r="AY110" s="2"/>
+      <c r="AZ110" s="2"/>
+      <c r="BA110" s="2"/>
+      <c r="BB110" s="2"/>
+      <c r="BC110" s="2"/>
+      <c r="BD110" s="2"/>
+      <c r="BE110" s="9"/>
       <c r="BF110" s="7"/>
       <c r="BG110" s="7"/>
       <c r="BH110" s="7"/>
@@ -14837,16 +14710,16 @@
       <c r="BQ110" s="7"/>
       <c r="BR110" s="7"/>
       <c r="BS110" s="7"/>
-      <c r="BT110" s="9"/>
-      <c r="BU110" s="2"/>
-      <c r="BV110" s="2"/>
-      <c r="BW110" s="2"/>
-      <c r="BX110" s="2"/>
-      <c r="BY110" s="2"/>
-      <c r="BZ110" s="2"/>
-      <c r="CA110" s="2"/>
-      <c r="CB110" s="11"/>
-      <c r="CC110" s="8"/>
+      <c r="BT110" s="7"/>
+      <c r="BU110" s="7"/>
+      <c r="BV110" s="7"/>
+      <c r="BW110" s="7"/>
+      <c r="BX110" s="7"/>
+      <c r="BY110" s="7"/>
+      <c r="BZ110" s="7"/>
+      <c r="CA110" s="10"/>
+      <c r="CB110" s="9"/>
+      <c r="CC110" s="3"/>
       <c r="CD110" s="2"/>
       <c r="CE110" s="2"/>
       <c r="CF110" s="2"/>
@@ -14946,12 +14819,12 @@
       <c r="AV111" s="2"/>
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
-      <c r="AY111" s="10"/>
-      <c r="AZ111" s="5"/>
-      <c r="BA111" s="6"/>
-      <c r="BB111" s="7"/>
-      <c r="BC111" s="7"/>
-      <c r="BD111" s="7"/>
+      <c r="AY111" s="2"/>
+      <c r="AZ111" s="2"/>
+      <c r="BA111" s="2"/>
+      <c r="BB111" s="2"/>
+      <c r="BC111" s="2"/>
+      <c r="BD111" s="9"/>
       <c r="BE111" s="7"/>
       <c r="BF111" s="7"/>
       <c r="BG111" s="7"/>
@@ -14968,12 +14841,12 @@
       <c r="BR111" s="7"/>
       <c r="BS111" s="7"/>
       <c r="BT111" s="7"/>
-      <c r="BU111" s="9"/>
-      <c r="BV111" s="2"/>
-      <c r="BW111" s="2"/>
-      <c r="BX111" s="2"/>
-      <c r="BY111" s="2"/>
-      <c r="BZ111" s="2"/>
+      <c r="BU111" s="7"/>
+      <c r="BV111" s="7"/>
+      <c r="BW111" s="7"/>
+      <c r="BX111" s="6"/>
+      <c r="BY111" s="5"/>
+      <c r="BZ111" s="8"/>
       <c r="CA111" s="2"/>
       <c r="CB111" s="2"/>
       <c r="CC111" s="2"/>
@@ -15080,7 +14953,7 @@
       <c r="AZ112" s="2"/>
       <c r="BA112" s="2"/>
       <c r="BB112" s="2"/>
-      <c r="BC112" s="8"/>
+      <c r="BC112" s="2"/>
       <c r="BD112" s="4"/>
       <c r="BE112" s="5"/>
       <c r="BF112" s="6"/>
@@ -15099,7 +14972,7 @@
       <c r="BS112" s="6"/>
       <c r="BT112" s="5"/>
       <c r="BU112" s="4"/>
-      <c r="BV112" s="2"/>
+      <c r="BV112" s="3"/>
       <c r="BW112" s="2"/>
       <c r="BX112" s="2"/>
       <c r="BY112" s="2"/>
